--- a/outputs-r202/train-f__Methanobacteriaceae.xlsx
+++ b/outputs-r202/train-f__Methanobacteriaceae.xlsx
@@ -10,6 +10,7 @@
     <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
     <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
     <sheet name="quadratic-svm-score2" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="490">
   <si>
     <t>Row</t>
   </si>
@@ -1205,6 +1206,288 @@
   </si>
   <si>
     <t>GB_GCA_003600755.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902795935.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902795935.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902795935.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001316325.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_001316325.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067065.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_012838205.1_1.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000302455.1_8.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000499765.1_18.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000499765.1_2.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002813695.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067325.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002067325.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002494495.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002495625.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002495625.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002502855.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002502855.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002502855.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003166335.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_011620845.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003151535.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003151535.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003158115.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003162655.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003162655.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009712615.1_8.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000191585.1_19.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000191585.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002498385.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002498385.1_16.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000214725.1_2.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900095295.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002505765.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002509665.1_8.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000745485.1_13.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000745485.1_5.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002287175.1_17.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002287175.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900321995.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902784195.1_14.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000024185.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902763935.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902772665.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902772665.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902783085.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902801725.1_11.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003111625.1_0.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900766745.1_16.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900769095.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314605.1_2.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000320505.1_0.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000320505.1_6.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000320505.1_8.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000621965.1_16.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_002208625.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009777005.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_009784145.1_4.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_000513315.1_1.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001639285.1_18.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001639285.1_3.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001639265.1_13.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001639265.1_5.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001639265.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266105.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003266165.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_013331465.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_013331465.1_5.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_001729965.1_16.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003149675.1_0.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_003149675.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003491285.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003491285.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002509745.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002509745.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002509745.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002509745.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002839705.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002839705.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002495685.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002495685.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002495685.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002495685.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002504725.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002504725.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002504725.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002504725.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002504725.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002504725.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003558085.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003558085.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003600755.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003600755.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003600755.1_5.fasta</t>
   </si>
 </sst>
 </file>
@@ -1225,7 +1508,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1241,11 +1524,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1255,6 +1540,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -24944,4 +25231,5925 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T95"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.5703125" customWidth="true"/>
+    <col min="3" max="3" width="21.140625" customWidth="true"/>
+    <col min="4" max="4" width="23.42578125" customWidth="true"/>
+    <col min="5" max="5" width="23.28515625" customWidth="true"/>
+    <col min="6" max="6" width="23.28515625" customWidth="true"/>
+    <col min="7" max="7" width="23.42578125" customWidth="true"/>
+    <col min="8" max="8" width="22.28515625" customWidth="true"/>
+    <col min="9" max="9" width="24.5703125" customWidth="true"/>
+    <col min="10" max="10" width="24.42578125" customWidth="true"/>
+    <col min="11" max="11" width="24.42578125" customWidth="true"/>
+    <col min="12" max="12" width="24.5703125" customWidth="true"/>
+    <col min="13" max="13" width="19.140625" customWidth="true"/>
+    <col min="14" max="14" width="15.7109375" customWidth="true"/>
+    <col min="15" max="15" width="15.7109375" customWidth="true"/>
+    <col min="16" max="16" width="15.5703125" customWidth="true"/>
+    <col min="17" max="17" width="15.5703125" customWidth="true"/>
+    <col min="18" max="18" width="15.5703125" customWidth="true"/>
+    <col min="19" max="19" width="10.28515625" customWidth="true"/>
+    <col min="20" max="20" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="B2">
+        <v>0.99393313371394054</v>
+      </c>
+      <c r="C2">
+        <v>2.2201616734076736e-14</v>
+      </c>
+      <c r="D2">
+        <v>2.4285244899497368e-05</v>
+      </c>
+      <c r="E2">
+        <v>2.2201616734076736e-14</v>
+      </c>
+      <c r="F2">
+        <v>2.2201616734076736e-14</v>
+      </c>
+      <c r="G2">
+        <v>3.3502306485532325e-05</v>
+      </c>
+      <c r="H2">
+        <v>2.2201616734076736e-14</v>
+      </c>
+      <c r="I2">
+        <v>2.2201616734076736e-14</v>
+      </c>
+      <c r="J2">
+        <v>2.2201616734076736e-14</v>
+      </c>
+      <c r="K2">
+        <v>4.5832013596474508e-06</v>
+      </c>
+      <c r="L2">
+        <v>2.2201616734076736e-14</v>
+      </c>
+      <c r="M2">
+        <v>0.0047619375163229392</v>
+      </c>
+      <c r="N2">
+        <v>3.9883933078642956e-08</v>
+      </c>
+      <c r="O2">
+        <v>0.0012425181328367153</v>
+      </c>
+      <c r="P2">
+        <v>2.2201616734076736e-14</v>
+      </c>
+      <c r="Q2">
+        <v>2.2201616734076736e-14</v>
+      </c>
+      <c r="R2">
+        <v>2.2201616734076736e-14</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="B3">
+        <v>0.98881338637292482</v>
+      </c>
+      <c r="C3">
+        <v>2.2201949701915631e-14</v>
+      </c>
+      <c r="D3">
+        <v>0.00051233913556958984</v>
+      </c>
+      <c r="E3">
+        <v>2.2201949701915631e-14</v>
+      </c>
+      <c r="F3">
+        <v>2.2201949701915631e-14</v>
+      </c>
+      <c r="G3">
+        <v>3.8645487873423376e-05</v>
+      </c>
+      <c r="H3">
+        <v>2.2201949701915631e-14</v>
+      </c>
+      <c r="I3">
+        <v>2.2201949701915631e-14</v>
+      </c>
+      <c r="J3">
+        <v>2.2201949701915631e-14</v>
+      </c>
+      <c r="K3">
+        <v>1.1837028078776829e-06</v>
+      </c>
+      <c r="L3">
+        <v>2.2201949701915631e-14</v>
+      </c>
+      <c r="M3">
+        <v>0.0090874217197271043</v>
+      </c>
+      <c r="N3">
+        <v>4.9329218378265963e-08</v>
+      </c>
+      <c r="O3">
+        <v>0.0015469742516566001</v>
+      </c>
+      <c r="P3">
+        <v>2.2201949701915631e-14</v>
+      </c>
+      <c r="Q3">
+        <v>2.2201949701915631e-14</v>
+      </c>
+      <c r="R3">
+        <v>2.2201949701915631e-14</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B4">
+        <v>0.99193504215732908</v>
+      </c>
+      <c r="C4">
+        <v>2.2202054767100712e-14</v>
+      </c>
+      <c r="D4">
+        <v>4.2236710668277956e-05</v>
+      </c>
+      <c r="E4">
+        <v>2.2202054767100712e-14</v>
+      </c>
+      <c r="F4">
+        <v>2.2202054767100712e-14</v>
+      </c>
+      <c r="G4">
+        <v>2.6665728702164334e-05</v>
+      </c>
+      <c r="H4">
+        <v>2.2202054767100712e-14</v>
+      </c>
+      <c r="I4">
+        <v>2.2202054767100712e-14</v>
+      </c>
+      <c r="J4">
+        <v>2.2202054767100712e-14</v>
+      </c>
+      <c r="K4">
+        <v>6.6975354684669559e-07</v>
+      </c>
+      <c r="L4">
+        <v>2.2202054767100712e-14</v>
+      </c>
+      <c r="M4">
+        <v>0.0060523428650161538</v>
+      </c>
+      <c r="N4">
+        <v>5.0558490714941407e-08</v>
+      </c>
+      <c r="O4">
+        <v>0.0019429922260247043</v>
+      </c>
+      <c r="P4">
+        <v>2.2202054767100712e-14</v>
+      </c>
+      <c r="Q4">
+        <v>2.2202054767100712e-14</v>
+      </c>
+      <c r="R4">
+        <v>2.2202054767100712e-14</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="B5">
+        <v>2.2204393985573315e-14</v>
+      </c>
+      <c r="C5">
+        <v>0.99994907385278342</v>
+      </c>
+      <c r="D5">
+        <v>2.2204393985573315e-14</v>
+      </c>
+      <c r="E5">
+        <v>2.2204393985573315e-14</v>
+      </c>
+      <c r="F5">
+        <v>2.2204393985573315e-14</v>
+      </c>
+      <c r="G5">
+        <v>3.4177967218558548e-09</v>
+      </c>
+      <c r="H5">
+        <v>2.2204393985573315e-14</v>
+      </c>
+      <c r="I5">
+        <v>2.2204393985573315e-14</v>
+      </c>
+      <c r="J5">
+        <v>2.2204393985573315e-14</v>
+      </c>
+      <c r="K5">
+        <v>2.1288001516535846e-12</v>
+      </c>
+      <c r="L5">
+        <v>2.2204393985573315e-14</v>
+      </c>
+      <c r="M5">
+        <v>5.0799498150656778e-05</v>
+      </c>
+      <c r="N5">
+        <v>2.2204393985573315e-14</v>
+      </c>
+      <c r="O5">
+        <v>1.2322887390365852e-07</v>
+      </c>
+      <c r="P5">
+        <v>2.2204393985573315e-14</v>
+      </c>
+      <c r="Q5">
+        <v>2.2204393985573315e-14</v>
+      </c>
+      <c r="R5">
+        <v>2.2204393985573315e-14</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="B6">
+        <v>2.2204266781215683e-14</v>
+      </c>
+      <c r="C6">
+        <v>0.99985162740666333</v>
+      </c>
+      <c r="D6">
+        <v>2.2204266781215683e-14</v>
+      </c>
+      <c r="E6">
+        <v>2.2204266781215683e-14</v>
+      </c>
+      <c r="F6">
+        <v>2.2204266781215683e-14</v>
+      </c>
+      <c r="G6">
+        <v>7.6351016868244004e-09</v>
+      </c>
+      <c r="H6">
+        <v>2.2204266781215683e-14</v>
+      </c>
+      <c r="I6">
+        <v>2.2204266781215683e-14</v>
+      </c>
+      <c r="J6">
+        <v>2.2204266781215683e-14</v>
+      </c>
+      <c r="K6">
+        <v>1.4894629450648936e-10</v>
+      </c>
+      <c r="L6">
+        <v>2.2204266781215683e-14</v>
+      </c>
+      <c r="M6">
+        <v>0.00014769038626714337</v>
+      </c>
+      <c r="N6">
+        <v>2.2204266781215683e-14</v>
+      </c>
+      <c r="O6">
+        <v>6.7442275493989667e-07</v>
+      </c>
+      <c r="P6">
+        <v>2.2204266781215683e-14</v>
+      </c>
+      <c r="Q6">
+        <v>2.2204266781215683e-14</v>
+      </c>
+      <c r="R6">
+        <v>2.2204266781215683e-14</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="B7">
+        <v>2.220267044816787e-14</v>
+      </c>
+      <c r="C7">
+        <v>0.98993330059177931</v>
+      </c>
+      <c r="D7">
+        <v>0.0065981951194783988</v>
+      </c>
+      <c r="E7">
+        <v>2.220267044816787e-14</v>
+      </c>
+      <c r="F7">
+        <v>2.220267044816787e-14</v>
+      </c>
+      <c r="G7">
+        <v>1.4044227162533287e-05</v>
+      </c>
+      <c r="H7">
+        <v>2.220267044816787e-14</v>
+      </c>
+      <c r="I7">
+        <v>2.220267044816787e-14</v>
+      </c>
+      <c r="J7">
+        <v>2.220267044816787e-14</v>
+      </c>
+      <c r="K7">
+        <v>3.5859099465472438e-07</v>
+      </c>
+      <c r="L7">
+        <v>2.220267044816787e-14</v>
+      </c>
+      <c r="M7">
+        <v>0.0034225174059892378</v>
+      </c>
+      <c r="N7">
+        <v>5.0112861693303728e-07</v>
+      </c>
+      <c r="O7">
+        <v>3.1082935756965402e-05</v>
+      </c>
+      <c r="P7">
+        <v>2.220267044816787e-14</v>
+      </c>
+      <c r="Q7">
+        <v>2.220267044816787e-14</v>
+      </c>
+      <c r="R7">
+        <v>2.220267044816787e-14</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="B8">
+        <v>2.2202867814519661e-14</v>
+      </c>
+      <c r="C8">
+        <v>0.9892514287816484</v>
+      </c>
+      <c r="D8">
+        <v>3.433593588776275e-05</v>
+      </c>
+      <c r="E8">
+        <v>2.2202867814519661e-14</v>
+      </c>
+      <c r="F8">
+        <v>2.2202867814519661e-14</v>
+      </c>
+      <c r="G8">
+        <v>1.4184454283686191e-05</v>
+      </c>
+      <c r="H8">
+        <v>2.2202867814519661e-14</v>
+      </c>
+      <c r="I8">
+        <v>2.2202867814519661e-14</v>
+      </c>
+      <c r="J8">
+        <v>2.2202867814519661e-14</v>
+      </c>
+      <c r="K8">
+        <v>7.6005222208832793e-08</v>
+      </c>
+      <c r="L8">
+        <v>2.2202867814519661e-14</v>
+      </c>
+      <c r="M8">
+        <v>0.006650962079533515</v>
+      </c>
+      <c r="N8">
+        <v>0.0034751679313146733</v>
+      </c>
+      <c r="O8">
+        <v>0.00057384481188769</v>
+      </c>
+      <c r="P8">
+        <v>2.2202867814519661e-14</v>
+      </c>
+      <c r="Q8">
+        <v>2.2202867814519661e-14</v>
+      </c>
+      <c r="R8">
+        <v>2.2202867814519661e-14</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="B9">
+        <v>2.2200980793021944e-14</v>
+      </c>
+      <c r="C9">
+        <v>0.99648742433375659</v>
+      </c>
+      <c r="D9">
+        <v>4.5538523576661983e-05</v>
+      </c>
+      <c r="E9">
+        <v>2.2200980793021944e-14</v>
+      </c>
+      <c r="F9">
+        <v>2.2200980793021944e-14</v>
+      </c>
+      <c r="G9">
+        <v>0.00012103915331356314</v>
+      </c>
+      <c r="H9">
+        <v>2.2200980793021944e-14</v>
+      </c>
+      <c r="I9">
+        <v>2.2200980793021944e-14</v>
+      </c>
+      <c r="J9">
+        <v>2.2200980793021944e-14</v>
+      </c>
+      <c r="K9">
+        <v>7.4320243231611849e-06</v>
+      </c>
+      <c r="L9">
+        <v>2.2200980793021944e-14</v>
+      </c>
+      <c r="M9">
+        <v>0.0028932239389798369</v>
+      </c>
+      <c r="N9">
+        <v>4.3073905293914363e-05</v>
+      </c>
+      <c r="O9">
+        <v>0.00040226812053432547</v>
+      </c>
+      <c r="P9">
+        <v>2.2200980793021944e-14</v>
+      </c>
+      <c r="Q9">
+        <v>2.2200980793021944e-14</v>
+      </c>
+      <c r="R9">
+        <v>2.2200980793021944e-14</v>
+      </c>
+      <c r="S9">
+        <v>2</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="B10">
+        <v>2.2200936284867781e-14</v>
+      </c>
+      <c r="C10">
+        <v>0.99680719407000107</v>
+      </c>
+      <c r="D10">
+        <v>0.0022530748398583763</v>
+      </c>
+      <c r="E10">
+        <v>2.2200936284867781e-14</v>
+      </c>
+      <c r="F10">
+        <v>2.2200936284867781e-14</v>
+      </c>
+      <c r="G10">
+        <v>1.0713463951778211e-05</v>
+      </c>
+      <c r="H10">
+        <v>2.2200936284867781e-14</v>
+      </c>
+      <c r="I10">
+        <v>2.2200936284867781e-14</v>
+      </c>
+      <c r="J10">
+        <v>2.2200936284867781e-14</v>
+      </c>
+      <c r="K10">
+        <v>4.5988282497719576e-08</v>
+      </c>
+      <c r="L10">
+        <v>2.2200936284867781e-14</v>
+      </c>
+      <c r="M10">
+        <v>0.00092273342722694991</v>
+      </c>
+      <c r="N10">
+        <v>1.0253891018248994e-09</v>
+      </c>
+      <c r="O10">
+        <v>6.2371850682206095e-06</v>
+      </c>
+      <c r="P10">
+        <v>2.2200936284867781e-14</v>
+      </c>
+      <c r="Q10">
+        <v>2.2200936284867781e-14</v>
+      </c>
+      <c r="R10">
+        <v>2.2200936284867781e-14</v>
+      </c>
+      <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B11">
+        <v>2.2200857020675015e-14</v>
+      </c>
+      <c r="C11">
+        <v>0.99721830764386021</v>
+      </c>
+      <c r="D11">
+        <v>0.0018942433453673626</v>
+      </c>
+      <c r="E11">
+        <v>2.2200857020675015e-14</v>
+      </c>
+      <c r="F11">
+        <v>2.2200857020675015e-14</v>
+      </c>
+      <c r="G11">
+        <v>9.720029172254478e-06</v>
+      </c>
+      <c r="H11">
+        <v>2.2200857020675015e-14</v>
+      </c>
+      <c r="I11">
+        <v>2.2200857020675015e-14</v>
+      </c>
+      <c r="J11">
+        <v>2.2200857020675015e-14</v>
+      </c>
+      <c r="K11">
+        <v>2.2749275219820772e-08</v>
+      </c>
+      <c r="L11">
+        <v>2.2200857020675015e-14</v>
+      </c>
+      <c r="M11">
+        <v>0.0008731437861728891</v>
+      </c>
+      <c r="N11">
+        <v>2.6089657036469299e-10</v>
+      </c>
+      <c r="O11">
+        <v>4.5621850336642224e-06</v>
+      </c>
+      <c r="P11">
+        <v>2.2200857020675015e-14</v>
+      </c>
+      <c r="Q11">
+        <v>2.2200857020675015e-14</v>
+      </c>
+      <c r="R11">
+        <v>2.2200857020675015e-14</v>
+      </c>
+      <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="B12">
+        <v>2.2200945260388416e-14</v>
+      </c>
+      <c r="C12">
+        <v>0.99728699517449126</v>
+      </c>
+      <c r="D12">
+        <v>1.0478658974838689e-06</v>
+      </c>
+      <c r="E12">
+        <v>2.2200945260388416e-14</v>
+      </c>
+      <c r="F12">
+        <v>2.2200945260388416e-14</v>
+      </c>
+      <c r="G12">
+        <v>3.4836733321373057e-05</v>
+      </c>
+      <c r="H12">
+        <v>2.2200945260388416e-14</v>
+      </c>
+      <c r="I12">
+        <v>2.2200945260388416e-14</v>
+      </c>
+      <c r="J12">
+        <v>2.2200945260388416e-14</v>
+      </c>
+      <c r="K12">
+        <v>1.5437120885013204e-06</v>
+      </c>
+      <c r="L12">
+        <v>2.2200945260388416e-14</v>
+      </c>
+      <c r="M12">
+        <v>0.0025986464319299228</v>
+      </c>
+      <c r="N12">
+        <v>1.3390943528319223e-07</v>
+      </c>
+      <c r="O12">
+        <v>7.6796172614015422e-05</v>
+      </c>
+      <c r="P12">
+        <v>2.2200945260388416e-14</v>
+      </c>
+      <c r="Q12">
+        <v>2.2200945260388416e-14</v>
+      </c>
+      <c r="R12">
+        <v>2.2200945260388416e-14</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B13">
+        <v>2.2203649397892932e-14</v>
+      </c>
+      <c r="C13">
+        <v>2.2203649397892932e-14</v>
+      </c>
+      <c r="D13">
+        <v>0.99937779931125892</v>
+      </c>
+      <c r="E13">
+        <v>2.2203649397892932e-14</v>
+      </c>
+      <c r="F13">
+        <v>2.2203649397892932e-14</v>
+      </c>
+      <c r="G13">
+        <v>9.6724815050509425e-06</v>
+      </c>
+      <c r="H13">
+        <v>2.2203649397892932e-14</v>
+      </c>
+      <c r="I13">
+        <v>2.2203649397892932e-14</v>
+      </c>
+      <c r="J13">
+        <v>2.2203649397892932e-14</v>
+      </c>
+      <c r="K13">
+        <v>1.3215610939864098e-09</v>
+      </c>
+      <c r="L13">
+        <v>2.2203649397892932e-14</v>
+      </c>
+      <c r="M13">
+        <v>0.00061041410096492066</v>
+      </c>
+      <c r="N13">
+        <v>2.8782517601827739e-11</v>
+      </c>
+      <c r="O13">
+        <v>2.1127556830750003e-06</v>
+      </c>
+      <c r="P13">
+        <v>2.2203649397892932e-14</v>
+      </c>
+      <c r="Q13">
+        <v>2.2203649397892932e-14</v>
+      </c>
+      <c r="R13">
+        <v>2.2203649397892932e-14</v>
+      </c>
+      <c r="S13">
+        <v>3</v>
+      </c>
+      <c r="T13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="B14">
+        <v>2.2204304952494327e-14</v>
+      </c>
+      <c r="C14">
+        <v>2.2204304952494327e-14</v>
+      </c>
+      <c r="D14">
+        <v>0.9998718330209867</v>
+      </c>
+      <c r="E14">
+        <v>2.2204304952494327e-14</v>
+      </c>
+      <c r="F14">
+        <v>2.2204304952494327e-14</v>
+      </c>
+      <c r="G14">
+        <v>6.0402052217515939e-07</v>
+      </c>
+      <c r="H14">
+        <v>2.2204304952494327e-14</v>
+      </c>
+      <c r="I14">
+        <v>2.2204304952494327e-14</v>
+      </c>
+      <c r="J14">
+        <v>2.2204304952494327e-14</v>
+      </c>
+      <c r="K14">
+        <v>1.1912530300373662e-10</v>
+      </c>
+      <c r="L14">
+        <v>2.2204304952494327e-14</v>
+      </c>
+      <c r="M14">
+        <v>0.00012725561498340638</v>
+      </c>
+      <c r="N14">
+        <v>1.1935265370663892e-13</v>
+      </c>
+      <c r="O14">
+        <v>3.0722401859543905e-07</v>
+      </c>
+      <c r="P14">
+        <v>2.2204304952494327e-14</v>
+      </c>
+      <c r="Q14">
+        <v>2.2204304952494327e-14</v>
+      </c>
+      <c r="R14">
+        <v>2.2204304952494327e-14</v>
+      </c>
+      <c r="S14">
+        <v>3</v>
+      </c>
+      <c r="T14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="B15">
+        <v>2.220095450797944e-14</v>
+      </c>
+      <c r="C15">
+        <v>2.220095450797944e-14</v>
+      </c>
+      <c r="D15">
+        <v>0.99639996279126608</v>
+      </c>
+      <c r="E15">
+        <v>2.220095450797944e-14</v>
+      </c>
+      <c r="F15">
+        <v>2.220095450797944e-14</v>
+      </c>
+      <c r="G15">
+        <v>0.00035409686371270014</v>
+      </c>
+      <c r="H15">
+        <v>2.220095450797944e-14</v>
+      </c>
+      <c r="I15">
+        <v>2.220095450797944e-14</v>
+      </c>
+      <c r="J15">
+        <v>2.220095450797944e-14</v>
+      </c>
+      <c r="K15">
+        <v>8.0821994496358201e-07</v>
+      </c>
+      <c r="L15">
+        <v>2.220095450797944e-14</v>
+      </c>
+      <c r="M15">
+        <v>0.0030840802152030298</v>
+      </c>
+      <c r="N15">
+        <v>6.4281576279743465e-05</v>
+      </c>
+      <c r="O15">
+        <v>9.6770333349196117e-05</v>
+      </c>
+      <c r="P15">
+        <v>2.220095450797944e-14</v>
+      </c>
+      <c r="Q15">
+        <v>2.220095450797944e-14</v>
+      </c>
+      <c r="R15">
+        <v>2.220095450797944e-14</v>
+      </c>
+      <c r="S15">
+        <v>3</v>
+      </c>
+      <c r="T15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B16">
+        <v>2.2204305507165432e-14</v>
+      </c>
+      <c r="C16">
+        <v>2.2204305507165432e-14</v>
+      </c>
+      <c r="D16">
+        <v>0.99986228937872479</v>
+      </c>
+      <c r="E16">
+        <v>2.2204305507165432e-14</v>
+      </c>
+      <c r="F16">
+        <v>2.2204305507165432e-14</v>
+      </c>
+      <c r="G16">
+        <v>5.9890138380979011e-07</v>
+      </c>
+      <c r="H16">
+        <v>2.2204305507165432e-14</v>
+      </c>
+      <c r="I16">
+        <v>2.2204305507165432e-14</v>
+      </c>
+      <c r="J16">
+        <v>2.2204305507165432e-14</v>
+      </c>
+      <c r="K16">
+        <v>1.2727803590620953e-10</v>
+      </c>
+      <c r="L16">
+        <v>2.2204305507165432e-14</v>
+      </c>
+      <c r="M16">
+        <v>0.00013677448689475698</v>
+      </c>
+      <c r="N16">
+        <v>1.7503858304511084e-13</v>
+      </c>
+      <c r="O16">
+        <v>3.3710529920098374e-07</v>
+      </c>
+      <c r="P16">
+        <v>2.2204305507165432e-14</v>
+      </c>
+      <c r="Q16">
+        <v>2.2204305507165432e-14</v>
+      </c>
+      <c r="R16">
+        <v>2.2204305507165432e-14</v>
+      </c>
+      <c r="S16">
+        <v>3</v>
+      </c>
+      <c r="T16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="B17">
+        <v>2.2204325436630116e-14</v>
+      </c>
+      <c r="C17">
+        <v>2.2204325436630116e-14</v>
+      </c>
+      <c r="D17">
+        <v>0.99989656043876396</v>
+      </c>
+      <c r="E17">
+        <v>2.2204325436630116e-14</v>
+      </c>
+      <c r="F17">
+        <v>2.2204325436630116e-14</v>
+      </c>
+      <c r="G17">
+        <v>2.3623459023566325e-07</v>
+      </c>
+      <c r="H17">
+        <v>2.2204325436630116e-14</v>
+      </c>
+      <c r="I17">
+        <v>2.2204325436630116e-14</v>
+      </c>
+      <c r="J17">
+        <v>2.2204325436630116e-14</v>
+      </c>
+      <c r="K17">
+        <v>5.4729819039847403e-11</v>
+      </c>
+      <c r="L17">
+        <v>2.2204325436630116e-14</v>
+      </c>
+      <c r="M17">
+        <v>0.00010286295453526404</v>
+      </c>
+      <c r="N17">
+        <v>5.3199608159720508e-14</v>
+      </c>
+      <c r="O17">
+        <v>3.4031708320702938e-07</v>
+      </c>
+      <c r="P17">
+        <v>2.2204325436630116e-14</v>
+      </c>
+      <c r="Q17">
+        <v>2.2204325436630116e-14</v>
+      </c>
+      <c r="R17">
+        <v>2.2204325436630116e-14</v>
+      </c>
+      <c r="S17">
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B18">
+        <v>2.2870167136517125e-14</v>
+      </c>
+      <c r="C18">
+        <v>2.2870167136517125e-14</v>
+      </c>
+      <c r="D18">
+        <v>0.99966144593472017</v>
+      </c>
+      <c r="E18">
+        <v>2.2870167136517128e-14</v>
+      </c>
+      <c r="F18">
+        <v>2.2870167136517128e-14</v>
+      </c>
+      <c r="G18">
+        <v>1.4728588297315853e-06</v>
+      </c>
+      <c r="H18">
+        <v>2.2870167136517336e-14</v>
+      </c>
+      <c r="I18">
+        <v>2.2870167136517336e-14</v>
+      </c>
+      <c r="J18">
+        <v>2.2870167136517336e-14</v>
+      </c>
+      <c r="K18">
+        <v>1.1425109216788377e-09</v>
+      </c>
+      <c r="L18">
+        <v>2.2870167136517283e-14</v>
+      </c>
+      <c r="M18">
+        <v>0.000335584863836383</v>
+      </c>
+      <c r="N18">
+        <v>2.4860066689726438e-12</v>
+      </c>
+      <c r="O18">
+        <v>1.4951973651360913e-06</v>
+      </c>
+      <c r="P18">
+        <v>2.287016713651727e-14</v>
+      </c>
+      <c r="Q18">
+        <v>2.287016713651727e-14</v>
+      </c>
+      <c r="R18">
+        <v>2.287016713651727e-14</v>
+      </c>
+      <c r="S18">
+        <v>3</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="B19">
+        <v>2.2204363586012054e-14</v>
+      </c>
+      <c r="C19">
+        <v>2.2204363586012054e-14</v>
+      </c>
+      <c r="D19">
+        <v>0.99986888575161603</v>
+      </c>
+      <c r="E19">
+        <v>2.2204363586012054e-14</v>
+      </c>
+      <c r="F19">
+        <v>2.2204363586012054e-14</v>
+      </c>
+      <c r="G19">
+        <v>8.7804828400176093e-08</v>
+      </c>
+      <c r="H19">
+        <v>2.2204363586012054e-14</v>
+      </c>
+      <c r="I19">
+        <v>2.2204363586012054e-14</v>
+      </c>
+      <c r="J19">
+        <v>2.2204363586012054e-14</v>
+      </c>
+      <c r="K19">
+        <v>3.2467489326705093e-11</v>
+      </c>
+      <c r="L19">
+        <v>2.2204363586012054e-14</v>
+      </c>
+      <c r="M19">
+        <v>0.0001305354442329935</v>
+      </c>
+      <c r="N19">
+        <v>2.2204363586012054e-14</v>
+      </c>
+      <c r="O19">
+        <v>4.9096658873669268e-07</v>
+      </c>
+      <c r="P19">
+        <v>2.2204363586012054e-14</v>
+      </c>
+      <c r="Q19">
+        <v>2.2204363586012054e-14</v>
+      </c>
+      <c r="R19">
+        <v>2.2204363586012054e-14</v>
+      </c>
+      <c r="S19">
+        <v>3</v>
+      </c>
+      <c r="T19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="B20">
+        <v>2.2203896924437565e-14</v>
+      </c>
+      <c r="C20">
+        <v>2.2203896924437565e-14</v>
+      </c>
+      <c r="D20">
+        <v>0.99953682166925195</v>
+      </c>
+      <c r="E20">
+        <v>2.2203896924437565e-14</v>
+      </c>
+      <c r="F20">
+        <v>2.2203896924437565e-14</v>
+      </c>
+      <c r="G20">
+        <v>4.9565388665393017e-06</v>
+      </c>
+      <c r="H20">
+        <v>2.2203896924437565e-14</v>
+      </c>
+      <c r="I20">
+        <v>2.2203896924437565e-14</v>
+      </c>
+      <c r="J20">
+        <v>2.2203896924437565e-14</v>
+      </c>
+      <c r="K20">
+        <v>7.5546807105033256e-09</v>
+      </c>
+      <c r="L20">
+        <v>2.2203896924437565e-14</v>
+      </c>
+      <c r="M20">
+        <v>0.00045543685596169587</v>
+      </c>
+      <c r="N20">
+        <v>4.97047178353428e-11</v>
+      </c>
+      <c r="O20">
+        <v>2.7773312899349075e-06</v>
+      </c>
+      <c r="P20">
+        <v>2.2203896924437565e-14</v>
+      </c>
+      <c r="Q20">
+        <v>2.2203896924437565e-14</v>
+      </c>
+      <c r="R20">
+        <v>2.2203896924437565e-14</v>
+      </c>
+      <c r="S20">
+        <v>3</v>
+      </c>
+      <c r="T20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="B21">
+        <v>2.2204131417533343e-14</v>
+      </c>
+      <c r="C21">
+        <v>2.2204131417533343e-14</v>
+      </c>
+      <c r="D21">
+        <v>0.98305148134332543</v>
+      </c>
+      <c r="E21">
+        <v>2.2204131417533343e-14</v>
+      </c>
+      <c r="F21">
+        <v>2.2204131417533343e-14</v>
+      </c>
+      <c r="G21">
+        <v>0.00011474006961025741</v>
+      </c>
+      <c r="H21">
+        <v>2.2204131417533343e-14</v>
+      </c>
+      <c r="I21">
+        <v>2.2204131417533343e-14</v>
+      </c>
+      <c r="J21">
+        <v>2.2204131417533343e-14</v>
+      </c>
+      <c r="K21">
+        <v>5.3278301181344032e-08</v>
+      </c>
+      <c r="L21">
+        <v>2.2204131417533343e-14</v>
+      </c>
+      <c r="M21">
+        <v>0.0037566487937181143</v>
+      </c>
+      <c r="N21">
+        <v>0.0083100160377775796</v>
+      </c>
+      <c r="O21">
+        <v>0.0047670604770231207</v>
+      </c>
+      <c r="P21">
+        <v>2.2204131417533343e-14</v>
+      </c>
+      <c r="Q21">
+        <v>2.2204131417533343e-14</v>
+      </c>
+      <c r="R21">
+        <v>2.2204131417533343e-14</v>
+      </c>
+      <c r="S21">
+        <v>3</v>
+      </c>
+      <c r="T21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B22">
+        <v>2.220437364260995e-14</v>
+      </c>
+      <c r="C22">
+        <v>2.220437364260995e-14</v>
+      </c>
+      <c r="D22">
+        <v>0.99993328768146228</v>
+      </c>
+      <c r="E22">
+        <v>2.220437364260995e-14</v>
+      </c>
+      <c r="F22">
+        <v>2.220437364260995e-14</v>
+      </c>
+      <c r="G22">
+        <v>1.0237691328333839e-07</v>
+      </c>
+      <c r="H22">
+        <v>2.220437364260995e-14</v>
+      </c>
+      <c r="I22">
+        <v>2.220437364260995e-14</v>
+      </c>
+      <c r="J22">
+        <v>2.220437364260995e-14</v>
+      </c>
+      <c r="K22">
+        <v>1.4768998741791399e-11</v>
+      </c>
+      <c r="L22">
+        <v>2.220437364260995e-14</v>
+      </c>
+      <c r="M22">
+        <v>6.6454164337285463e-05</v>
+      </c>
+      <c r="N22">
+        <v>2.220437364260995e-14</v>
+      </c>
+      <c r="O22">
+        <v>1.5576225172243972e-07</v>
+      </c>
+      <c r="P22">
+        <v>2.220437364260995e-14</v>
+      </c>
+      <c r="Q22">
+        <v>2.220437364260995e-14</v>
+      </c>
+      <c r="R22">
+        <v>2.220437364260995e-14</v>
+      </c>
+      <c r="S22">
+        <v>3</v>
+      </c>
+      <c r="T22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="B23">
+        <v>2.2203524767545182e-14</v>
+      </c>
+      <c r="C23">
+        <v>2.2203524767545182e-14</v>
+      </c>
+      <c r="D23">
+        <v>1.336205208388929e-05</v>
+      </c>
+      <c r="E23">
+        <v>0.98311593806648612</v>
+      </c>
+      <c r="F23">
+        <v>2.2203524767545182e-14</v>
+      </c>
+      <c r="G23">
+        <v>0.00066579055188681932</v>
+      </c>
+      <c r="H23">
+        <v>2.2203524767545182e-14</v>
+      </c>
+      <c r="I23">
+        <v>2.2203524767545182e-14</v>
+      </c>
+      <c r="J23">
+        <v>2.2203524767545182e-14</v>
+      </c>
+      <c r="K23">
+        <v>1.7166293002854581e-07</v>
+      </c>
+      <c r="L23">
+        <v>2.2203524767545182e-14</v>
+      </c>
+      <c r="M23">
+        <v>0.010047245572560067</v>
+      </c>
+      <c r="N23">
+        <v>0.005387003554963978</v>
+      </c>
+      <c r="O23">
+        <v>0.00077048853886712751</v>
+      </c>
+      <c r="P23">
+        <v>2.2203524767545182e-14</v>
+      </c>
+      <c r="Q23">
+        <v>2.2203524767545182e-14</v>
+      </c>
+      <c r="R23">
+        <v>2.2203524767545182e-14</v>
+      </c>
+      <c r="S23">
+        <v>4</v>
+      </c>
+      <c r="T23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="B24">
+        <v>2.2202484794830042e-14</v>
+      </c>
+      <c r="C24">
+        <v>2.2202484794830042e-14</v>
+      </c>
+      <c r="D24">
+        <v>0.00072158516111351441</v>
+      </c>
+      <c r="E24">
+        <v>0.98299195636632597</v>
+      </c>
+      <c r="F24">
+        <v>2.2202484794830042e-14</v>
+      </c>
+      <c r="G24">
+        <v>0.00023634088246101234</v>
+      </c>
+      <c r="H24">
+        <v>2.2202484794830042e-14</v>
+      </c>
+      <c r="I24">
+        <v>2.2202484794830042e-14</v>
+      </c>
+      <c r="J24">
+        <v>2.2202484794830042e-14</v>
+      </c>
+      <c r="K24">
+        <v>1.983535434208298e-07</v>
+      </c>
+      <c r="L24">
+        <v>2.2202484794830042e-14</v>
+      </c>
+      <c r="M24">
+        <v>0.012506418987278453</v>
+      </c>
+      <c r="N24">
+        <v>0.002122388813244184</v>
+      </c>
+      <c r="O24">
+        <v>0.0014211114358114261</v>
+      </c>
+      <c r="P24">
+        <v>2.2202484794830042e-14</v>
+      </c>
+      <c r="Q24">
+        <v>2.2202484794830042e-14</v>
+      </c>
+      <c r="R24">
+        <v>2.2202484794830042e-14</v>
+      </c>
+      <c r="S24">
+        <v>4</v>
+      </c>
+      <c r="T24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B25">
+        <v>2.2203447736799039e-14</v>
+      </c>
+      <c r="C25">
+        <v>2.2203447736799039e-14</v>
+      </c>
+      <c r="D25">
+        <v>0.00087325029404039165</v>
+      </c>
+      <c r="E25">
+        <v>0.9833612228333537</v>
+      </c>
+      <c r="F25">
+        <v>2.2203447736799039e-14</v>
+      </c>
+      <c r="G25">
+        <v>0.00070456116023355486</v>
+      </c>
+      <c r="H25">
+        <v>2.2203447736799039e-14</v>
+      </c>
+      <c r="I25">
+        <v>2.2203447736799039e-14</v>
+      </c>
+      <c r="J25">
+        <v>2.2203447736799039e-14</v>
+      </c>
+      <c r="K25">
+        <v>1.2170446218295813e-07</v>
+      </c>
+      <c r="L25">
+        <v>2.2203447736799039e-14</v>
+      </c>
+      <c r="M25">
+        <v>0.010096083267661895</v>
+      </c>
+      <c r="N25">
+        <v>0.0046523459979051305</v>
+      </c>
+      <c r="O25">
+        <v>0.00031241474212108145</v>
+      </c>
+      <c r="P25">
+        <v>2.2203447736799039e-14</v>
+      </c>
+      <c r="Q25">
+        <v>2.2203447736799039e-14</v>
+      </c>
+      <c r="R25">
+        <v>2.2203447736799039e-14</v>
+      </c>
+      <c r="S25">
+        <v>4</v>
+      </c>
+      <c r="T25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="B26">
+        <v>2.2203217623919522e-14</v>
+      </c>
+      <c r="C26">
+        <v>2.2203217623919522e-14</v>
+      </c>
+      <c r="D26">
+        <v>7.7375867251090898e-05</v>
+      </c>
+      <c r="E26">
+        <v>0.98935306511267196</v>
+      </c>
+      <c r="F26">
+        <v>2.2203217623919522e-14</v>
+      </c>
+      <c r="G26">
+        <v>0.0043799348948012828</v>
+      </c>
+      <c r="H26">
+        <v>2.2203217623919522e-14</v>
+      </c>
+      <c r="I26">
+        <v>2.2203217623919522e-14</v>
+      </c>
+      <c r="J26">
+        <v>2.2203217623919522e-14</v>
+      </c>
+      <c r="K26">
+        <v>3.031679006813274e-07</v>
+      </c>
+      <c r="L26">
+        <v>2.2203217623919522e-14</v>
+      </c>
+      <c r="M26">
+        <v>0.0047806514893675312</v>
+      </c>
+      <c r="N26">
+        <v>0.0013313460703215192</v>
+      </c>
+      <c r="O26">
+        <v>7.7323397463907793e-05</v>
+      </c>
+      <c r="P26">
+        <v>2.2203217623919522e-14</v>
+      </c>
+      <c r="Q26">
+        <v>2.2203217623919522e-14</v>
+      </c>
+      <c r="R26">
+        <v>2.2203217623919522e-14</v>
+      </c>
+      <c r="S26">
+        <v>4</v>
+      </c>
+      <c r="T26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B27">
+        <v>2.2203012096071069e-14</v>
+      </c>
+      <c r="C27">
+        <v>2.2203012096071069e-14</v>
+      </c>
+      <c r="D27">
+        <v>4.7081061992765927e-05</v>
+      </c>
+      <c r="E27">
+        <v>0.98871719606676189</v>
+      </c>
+      <c r="F27">
+        <v>2.2203012096071069e-14</v>
+      </c>
+      <c r="G27">
+        <v>0.0040177053805101207</v>
+      </c>
+      <c r="H27">
+        <v>2.2203012096071069e-14</v>
+      </c>
+      <c r="I27">
+        <v>2.2203012096071069e-14</v>
+      </c>
+      <c r="J27">
+        <v>2.2203012096071069e-14</v>
+      </c>
+      <c r="K27">
+        <v>2.8417655874162272e-07</v>
+      </c>
+      <c r="L27">
+        <v>2.2203012096071069e-14</v>
+      </c>
+      <c r="M27">
+        <v>0.0066852413221668468</v>
+      </c>
+      <c r="N27">
+        <v>0.00041422314620090779</v>
+      </c>
+      <c r="O27">
+        <v>0.00011826884558655791</v>
+      </c>
+      <c r="P27">
+        <v>2.2203012096071069e-14</v>
+      </c>
+      <c r="Q27">
+        <v>2.2203012096071069e-14</v>
+      </c>
+      <c r="R27">
+        <v>2.2203012096071069e-14</v>
+      </c>
+      <c r="S27">
+        <v>4</v>
+      </c>
+      <c r="T27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B28">
+        <v>0.055287918897104223</v>
+      </c>
+      <c r="C28">
+        <v>0.055287918897104223</v>
+      </c>
+      <c r="D28">
+        <v>0.055291879871824004</v>
+      </c>
+      <c r="E28">
+        <v>0.11062388109313644</v>
+      </c>
+      <c r="F28">
+        <v>0.05528791889710425</v>
+      </c>
+      <c r="G28">
+        <v>0.055288685546987591</v>
+      </c>
+      <c r="H28">
+        <v>0.055287918897105118</v>
+      </c>
+      <c r="I28">
+        <v>0.055287918897105118</v>
+      </c>
+      <c r="J28">
+        <v>0.055287918897105125</v>
+      </c>
+      <c r="K28">
+        <v>0.055290976481003049</v>
+      </c>
+      <c r="L28">
+        <v>0.055287918897104306</v>
+      </c>
+      <c r="M28">
+        <v>0.059734271786525128</v>
+      </c>
+      <c r="N28">
+        <v>0.05528792038985559</v>
+      </c>
+      <c r="O28">
+        <v>0.055603195859622936</v>
+      </c>
+      <c r="P28">
+        <v>0.05528791889710432</v>
+      </c>
+      <c r="Q28">
+        <v>0.055287918897104354</v>
+      </c>
+      <c r="R28">
+        <v>0.055287918897104306</v>
+      </c>
+      <c r="S28">
+        <v>4</v>
+      </c>
+      <c r="T28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="B29">
+        <v>2.2200978263353069e-14</v>
+      </c>
+      <c r="C29">
+        <v>2.2200978263353069e-14</v>
+      </c>
+      <c r="D29">
+        <v>7.683044340261572e-10</v>
+      </c>
+      <c r="E29">
+        <v>0.99233916601441763</v>
+      </c>
+      <c r="F29">
+        <v>2.2200978263353069e-14</v>
+      </c>
+      <c r="G29">
+        <v>6.2676559323133615e-06</v>
+      </c>
+      <c r="H29">
+        <v>2.2200978263353069e-14</v>
+      </c>
+      <c r="I29">
+        <v>2.2200978263353069e-14</v>
+      </c>
+      <c r="J29">
+        <v>2.2200978263353069e-14</v>
+      </c>
+      <c r="K29">
+        <v>1.4044798340454919e-05</v>
+      </c>
+      <c r="L29">
+        <v>2.2200978263353069e-14</v>
+      </c>
+      <c r="M29">
+        <v>0.0074433476257664962</v>
+      </c>
+      <c r="N29">
+        <v>2.9439394034558095e-07</v>
+      </c>
+      <c r="O29">
+        <v>0.0001968787430762188</v>
+      </c>
+      <c r="P29">
+        <v>2.2200978263353069e-14</v>
+      </c>
+      <c r="Q29">
+        <v>2.2200978263353069e-14</v>
+      </c>
+      <c r="R29">
+        <v>2.2200978263353069e-14</v>
+      </c>
+      <c r="S29">
+        <v>4</v>
+      </c>
+      <c r="T29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B30">
+        <v>2.220099940690612e-14</v>
+      </c>
+      <c r="C30">
+        <v>2.220099940690612e-14</v>
+      </c>
+      <c r="D30">
+        <v>2.4369241819654518e-08</v>
+      </c>
+      <c r="E30">
+        <v>0.99493529542255665</v>
+      </c>
+      <c r="F30">
+        <v>2.220099940690612e-14</v>
+      </c>
+      <c r="G30">
+        <v>2.9897423052332513e-05</v>
+      </c>
+      <c r="H30">
+        <v>2.220099940690612e-14</v>
+      </c>
+      <c r="I30">
+        <v>2.220099940690612e-14</v>
+      </c>
+      <c r="J30">
+        <v>2.220099940690612e-14</v>
+      </c>
+      <c r="K30">
+        <v>1.1019726758773112e-05</v>
+      </c>
+      <c r="L30">
+        <v>2.220099940690612e-14</v>
+      </c>
+      <c r="M30">
+        <v>0.0047704610461094905</v>
+      </c>
+      <c r="N30">
+        <v>2.267750039451438e-07</v>
+      </c>
+      <c r="O30">
+        <v>0.00025307523705503935</v>
+      </c>
+      <c r="P30">
+        <v>2.220099940690612e-14</v>
+      </c>
+      <c r="Q30">
+        <v>2.220099940690612e-14</v>
+      </c>
+      <c r="R30">
+        <v>2.220099940690612e-14</v>
+      </c>
+      <c r="S30">
+        <v>4</v>
+      </c>
+      <c r="T30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="B31">
+        <v>2.2201151936770028e-14</v>
+      </c>
+      <c r="C31">
+        <v>2.2201151936770028e-14</v>
+      </c>
+      <c r="D31">
+        <v>4.3587012461696158e-06</v>
+      </c>
+      <c r="E31">
+        <v>2.2201151936770028e-14</v>
+      </c>
+      <c r="F31">
+        <v>0.99642339314750317</v>
+      </c>
+      <c r="G31">
+        <v>1.5377731891151462e-09</v>
+      </c>
+      <c r="H31">
+        <v>2.2201151936770028e-14</v>
+      </c>
+      <c r="I31">
+        <v>2.2201151936770028e-14</v>
+      </c>
+      <c r="J31">
+        <v>2.2201151936770028e-14</v>
+      </c>
+      <c r="K31">
+        <v>4.6063875322816843e-05</v>
+      </c>
+      <c r="L31">
+        <v>2.2201151936770028e-14</v>
+      </c>
+      <c r="M31">
+        <v>0.0016311296469568458</v>
+      </c>
+      <c r="N31">
+        <v>7.6650006827287557e-11</v>
+      </c>
+      <c r="O31">
+        <v>0.0018950530143257999</v>
+      </c>
+      <c r="P31">
+        <v>2.2201151936770028e-14</v>
+      </c>
+      <c r="Q31">
+        <v>2.2201151936770028e-14</v>
+      </c>
+      <c r="R31">
+        <v>2.2201151936770028e-14</v>
+      </c>
+      <c r="S31">
+        <v>5</v>
+      </c>
+      <c r="T31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="B32">
+        <v>2.2201289497303892e-14</v>
+      </c>
+      <c r="C32">
+        <v>2.2201289497303892e-14</v>
+      </c>
+      <c r="D32">
+        <v>6.8457524718743945e-05</v>
+      </c>
+      <c r="E32">
+        <v>2.2201289497303892e-14</v>
+      </c>
+      <c r="F32">
+        <v>0.99509873981523655</v>
+      </c>
+      <c r="G32">
+        <v>6.5474631127737376e-12</v>
+      </c>
+      <c r="H32">
+        <v>2.2201289497303892e-14</v>
+      </c>
+      <c r="I32">
+        <v>2.2201289497303892e-14</v>
+      </c>
+      <c r="J32">
+        <v>2.2201289497303892e-14</v>
+      </c>
+      <c r="K32">
+        <v>1.5600296224931006e-06</v>
+      </c>
+      <c r="L32">
+        <v>2.2201289497303892e-14</v>
+      </c>
+      <c r="M32">
+        <v>0.00079411866324140604</v>
+      </c>
+      <c r="N32">
+        <v>1.203441030565675e-12</v>
+      </c>
+      <c r="O32">
+        <v>0.0040371239592078409</v>
+      </c>
+      <c r="P32">
+        <v>2.2201289497303892e-14</v>
+      </c>
+      <c r="Q32">
+        <v>2.2201289497303892e-14</v>
+      </c>
+      <c r="R32">
+        <v>2.2201289497303892e-14</v>
+      </c>
+      <c r="S32">
+        <v>5</v>
+      </c>
+      <c r="T32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="B33">
+        <v>2.2201993473277075e-14</v>
+      </c>
+      <c r="C33">
+        <v>2.2201993473277075e-14</v>
+      </c>
+      <c r="D33">
+        <v>2.8887178049291686e-07</v>
+      </c>
+      <c r="E33">
+        <v>2.2201993473277075e-14</v>
+      </c>
+      <c r="F33">
+        <v>0.99454041237135626</v>
+      </c>
+      <c r="G33">
+        <v>0.003028604242537669</v>
+      </c>
+      <c r="H33">
+        <v>2.2201993473277075e-14</v>
+      </c>
+      <c r="I33">
+        <v>2.2201993473277075e-14</v>
+      </c>
+      <c r="J33">
+        <v>2.2201993473277075e-14</v>
+      </c>
+      <c r="K33">
+        <v>2.2939563078085882e-05</v>
+      </c>
+      <c r="L33">
+        <v>2.2201993473277075e-14</v>
+      </c>
+      <c r="M33">
+        <v>0.0017609719227166328</v>
+      </c>
+      <c r="N33">
+        <v>0.00044943560605012093</v>
+      </c>
+      <c r="O33">
+        <v>0.00019734742225867316</v>
+      </c>
+      <c r="P33">
+        <v>2.2201993473277075e-14</v>
+      </c>
+      <c r="Q33">
+        <v>2.2201993473277075e-14</v>
+      </c>
+      <c r="R33">
+        <v>2.2201993473277075e-14</v>
+      </c>
+      <c r="S33">
+        <v>5</v>
+      </c>
+      <c r="T33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B34">
+        <v>2.2201251436145277e-14</v>
+      </c>
+      <c r="C34">
+        <v>2.2201251436145277e-14</v>
+      </c>
+      <c r="D34">
+        <v>0.0032866453109318791</v>
+      </c>
+      <c r="E34">
+        <v>2.2201251436145277e-14</v>
+      </c>
+      <c r="F34">
+        <v>0.99574114455980767</v>
+      </c>
+      <c r="G34">
+        <v>1.4302513008822207e-08</v>
+      </c>
+      <c r="H34">
+        <v>2.2201251436145277e-14</v>
+      </c>
+      <c r="I34">
+        <v>2.2201251436145277e-14</v>
+      </c>
+      <c r="J34">
+        <v>2.2201251436145277e-14</v>
+      </c>
+      <c r="K34">
+        <v>8.3088803000538775e-06</v>
+      </c>
+      <c r="L34">
+        <v>2.2201251436145277e-14</v>
+      </c>
+      <c r="M34">
+        <v>0.0007000157836261296</v>
+      </c>
+      <c r="N34">
+        <v>9.4281988184443305e-11</v>
+      </c>
+      <c r="O34">
+        <v>0.00026387106831742289</v>
+      </c>
+      <c r="P34">
+        <v>2.2201251436145277e-14</v>
+      </c>
+      <c r="Q34">
+        <v>2.2201251436145277e-14</v>
+      </c>
+      <c r="R34">
+        <v>2.2201251436145277e-14</v>
+      </c>
+      <c r="S34">
+        <v>5</v>
+      </c>
+      <c r="T34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B35">
+        <v>1.0400981584738396e-13</v>
+      </c>
+      <c r="C35">
+        <v>1.0400981584738396e-13</v>
+      </c>
+      <c r="D35">
+        <v>3.8133805761627515e-06</v>
+      </c>
+      <c r="E35">
+        <v>1.0400981584738399e-13</v>
+      </c>
+      <c r="F35">
+        <v>1.0400981584738399e-13</v>
+      </c>
+      <c r="G35">
+        <v>0.9696824460210457</v>
+      </c>
+      <c r="H35">
+        <v>1.0400981584738394e-13</v>
+      </c>
+      <c r="I35">
+        <v>1.040098158473837e-13</v>
+      </c>
+      <c r="J35">
+        <v>1.0400981584738381e-13</v>
+      </c>
+      <c r="K35">
+        <v>6.8524375851812863e-06</v>
+      </c>
+      <c r="L35">
+        <v>1.0400981584738371e-13</v>
+      </c>
+      <c r="M35">
+        <v>0.0046217965632357715</v>
+      </c>
+      <c r="N35">
+        <v>0.013400423306078536</v>
+      </c>
+      <c r="O35">
+        <v>0.0122846682903348</v>
+      </c>
+      <c r="P35">
+        <v>1.0400981584738375e-13</v>
+      </c>
+      <c r="Q35">
+        <v>1.0400981584738394e-13</v>
+      </c>
+      <c r="R35">
+        <v>1.0400981584738375e-13</v>
+      </c>
+      <c r="S35">
+        <v>6</v>
+      </c>
+      <c r="T35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B36">
+        <v>5.6572101959271717e-14</v>
+      </c>
+      <c r="C36">
+        <v>5.6572101959271717e-14</v>
+      </c>
+      <c r="D36">
+        <v>1.8347113858403198e-09</v>
+      </c>
+      <c r="E36">
+        <v>5.6572101959271723e-14</v>
+      </c>
+      <c r="F36">
+        <v>5.6572101959271723e-14</v>
+      </c>
+      <c r="G36">
+        <v>0.96782110394559973</v>
+      </c>
+      <c r="H36">
+        <v>5.6572101959271773e-14</v>
+      </c>
+      <c r="I36">
+        <v>5.6572101959271767e-14</v>
+      </c>
+      <c r="J36">
+        <v>5.657210195927178e-14</v>
+      </c>
+      <c r="K36">
+        <v>9.8927206297629272e-06</v>
+      </c>
+      <c r="L36">
+        <v>5.6572101959269861e-14</v>
+      </c>
+      <c r="M36">
+        <v>0.0025810354217639941</v>
+      </c>
+      <c r="N36">
+        <v>0.014649418091362795</v>
+      </c>
+      <c r="O36">
+        <v>0.014938547985309764</v>
+      </c>
+      <c r="P36">
+        <v>5.6572101959269899e-14</v>
+      </c>
+      <c r="Q36">
+        <v>5.6572101959269943e-14</v>
+      </c>
+      <c r="R36">
+        <v>5.6572101959269893e-14</v>
+      </c>
+      <c r="S36">
+        <v>6</v>
+      </c>
+      <c r="T36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B37">
+        <v>1.2417720802263612e-13</v>
+      </c>
+      <c r="C37">
+        <v>1.2417720802263612e-13</v>
+      </c>
+      <c r="D37">
+        <v>8.6186568717823966e-07</v>
+      </c>
+      <c r="E37">
+        <v>1.2417720802263605e-13</v>
+      </c>
+      <c r="F37">
+        <v>1.2417720802263605e-13</v>
+      </c>
+      <c r="G37">
+        <v>0.95590924031442936</v>
+      </c>
+      <c r="H37">
+        <v>1.2417720802263988e-13</v>
+      </c>
+      <c r="I37">
+        <v>1.2417720802263956e-13</v>
+      </c>
+      <c r="J37">
+        <v>1.2417720802263958e-13</v>
+      </c>
+      <c r="K37">
+        <v>4.2967783661711448e-05</v>
+      </c>
+      <c r="L37">
+        <v>1.2417720802263996e-13</v>
+      </c>
+      <c r="M37">
+        <v>0.0073202824616218892</v>
+      </c>
+      <c r="N37">
+        <v>0.024245906671430749</v>
+      </c>
+      <c r="O37">
+        <v>0.012480740901803197</v>
+      </c>
+      <c r="P37">
+        <v>1.2417720802263963e-13</v>
+      </c>
+      <c r="Q37">
+        <v>1.2417720802263963e-13</v>
+      </c>
+      <c r="R37">
+        <v>1.2417720802263963e-13</v>
+      </c>
+      <c r="S37">
+        <v>6</v>
+      </c>
+      <c r="T37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B38">
+        <v>4.8813391506852842e-14</v>
+      </c>
+      <c r="C38">
+        <v>4.8813391506852842e-14</v>
+      </c>
+      <c r="D38">
+        <v>6.1665222652246409e-10</v>
+      </c>
+      <c r="E38">
+        <v>4.8813391506852886e-14</v>
+      </c>
+      <c r="F38">
+        <v>4.8813391506852842e-14</v>
+      </c>
+      <c r="G38">
+        <v>0.93146539249869886</v>
+      </c>
+      <c r="H38">
+        <v>4.8813391506852854e-14</v>
+      </c>
+      <c r="I38">
+        <v>4.8813391506852848e-14</v>
+      </c>
+      <c r="J38">
+        <v>4.8813391506852848e-14</v>
+      </c>
+      <c r="K38">
+        <v>3.654421961231343e-06</v>
+      </c>
+      <c r="L38">
+        <v>4.8813391506852829e-14</v>
+      </c>
+      <c r="M38">
+        <v>0.0023501477635583605</v>
+      </c>
+      <c r="N38">
+        <v>0.019686725006819148</v>
+      </c>
+      <c r="O38">
+        <v>0.046494079691773091</v>
+      </c>
+      <c r="P38">
+        <v>4.8813391506852804e-14</v>
+      </c>
+      <c r="Q38">
+        <v>4.8813391506852829e-14</v>
+      </c>
+      <c r="R38">
+        <v>4.8813391506852804e-14</v>
+      </c>
+      <c r="S38">
+        <v>6</v>
+      </c>
+      <c r="T38">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="B39">
+        <v>4.6594182834122208e-13</v>
+      </c>
+      <c r="C39">
+        <v>4.6594182834122208e-13</v>
+      </c>
+      <c r="D39">
+        <v>1.2307728758897508e-05</v>
+      </c>
+      <c r="E39">
+        <v>4.6594182834122228e-13</v>
+      </c>
+      <c r="F39">
+        <v>4.6594182834122228e-13</v>
+      </c>
+      <c r="G39">
+        <v>0.94038774997910235</v>
+      </c>
+      <c r="H39">
+        <v>4.6594182834122198e-13</v>
+      </c>
+      <c r="I39">
+        <v>4.6594182834122147e-13</v>
+      </c>
+      <c r="J39">
+        <v>4.6594182834122228e-13</v>
+      </c>
+      <c r="K39">
+        <v>0.00045519347909687367</v>
+      </c>
+      <c r="L39">
+        <v>4.6594182834122228e-13</v>
+      </c>
+      <c r="M39">
+        <v>0.021467500906418989</v>
+      </c>
+      <c r="N39">
+        <v>0.013545026582751963</v>
+      </c>
+      <c r="O39">
+        <v>0.024132221318745886</v>
+      </c>
+      <c r="P39">
+        <v>4.6594182834122228e-13</v>
+      </c>
+      <c r="Q39">
+        <v>4.6594182834122238e-13</v>
+      </c>
+      <c r="R39">
+        <v>4.6594182834122228e-13</v>
+      </c>
+      <c r="S39">
+        <v>6</v>
+      </c>
+      <c r="T39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B40">
+        <v>5.857160892722212e-14</v>
+      </c>
+      <c r="C40">
+        <v>5.857160892722212e-14</v>
+      </c>
+      <c r="D40">
+        <v>1.4020746001056606e-08</v>
+      </c>
+      <c r="E40">
+        <v>5.8571608927222297e-14</v>
+      </c>
+      <c r="F40">
+        <v>5.8571608927222133e-14</v>
+      </c>
+      <c r="G40">
+        <v>0.98169615193557436</v>
+      </c>
+      <c r="H40">
+        <v>5.8571608927222158e-14</v>
+      </c>
+      <c r="I40">
+        <v>5.8571608927222145e-14</v>
+      </c>
+      <c r="J40">
+        <v>5.8571608927222145e-14</v>
+      </c>
+      <c r="K40">
+        <v>3.7129506993816629e-05</v>
+      </c>
+      <c r="L40">
+        <v>5.8571608927222486e-14</v>
+      </c>
+      <c r="M40">
+        <v>0.0023075617888374429</v>
+      </c>
+      <c r="N40">
+        <v>0.0056756335208671422</v>
+      </c>
+      <c r="O40">
+        <v>0.010283509226336657</v>
+      </c>
+      <c r="P40">
+        <v>5.857160892721923e-14</v>
+      </c>
+      <c r="Q40">
+        <v>5.8571608927219255e-14</v>
+      </c>
+      <c r="R40">
+        <v>5.857160892721923e-14</v>
+      </c>
+      <c r="S40">
+        <v>6</v>
+      </c>
+      <c r="T40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="B41">
+        <v>2.2202833937177513e-14</v>
+      </c>
+      <c r="C41">
+        <v>2.2202833937177513e-14</v>
+      </c>
+      <c r="D41">
+        <v>1.3438490981818338e-09</v>
+      </c>
+      <c r="E41">
+        <v>2.2202833937177513e-14</v>
+      </c>
+      <c r="F41">
+        <v>2.2202833937177513e-14</v>
+      </c>
+      <c r="G41">
+        <v>0.00018126197514508493</v>
+      </c>
+      <c r="H41">
+        <v>0.99032062334260162</v>
+      </c>
+      <c r="I41">
+        <v>2.2202833937177513e-14</v>
+      </c>
+      <c r="J41">
+        <v>2.2202833937177513e-14</v>
+      </c>
+      <c r="K41">
+        <v>1.093728536365428e-06</v>
+      </c>
+      <c r="L41">
+        <v>2.2202833937177513e-14</v>
+      </c>
+      <c r="M41">
+        <v>0.0040496410318150971</v>
+      </c>
+      <c r="N41">
+        <v>9.4499700116262416e-07</v>
+      </c>
+      <c r="O41">
+        <v>0.0054464335808296583</v>
+      </c>
+      <c r="P41">
+        <v>2.2202833937177513e-14</v>
+      </c>
+      <c r="Q41">
+        <v>2.2202833937177513e-14</v>
+      </c>
+      <c r="R41">
+        <v>2.2202833937177513e-14</v>
+      </c>
+      <c r="S41">
+        <v>7</v>
+      </c>
+      <c r="T41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="B42">
+        <v>2.2202322395346523e-14</v>
+      </c>
+      <c r="C42">
+        <v>2.2202322395346523e-14</v>
+      </c>
+      <c r="D42">
+        <v>1.1855795970966427e-10</v>
+      </c>
+      <c r="E42">
+        <v>2.2202322395346523e-14</v>
+      </c>
+      <c r="F42">
+        <v>2.2202322395346523e-14</v>
+      </c>
+      <c r="G42">
+        <v>0.001015096785545752</v>
+      </c>
+      <c r="H42">
+        <v>0.99079973455316339</v>
+      </c>
+      <c r="I42">
+        <v>2.2202322395346523e-14</v>
+      </c>
+      <c r="J42">
+        <v>2.2202322395346523e-14</v>
+      </c>
+      <c r="K42">
+        <v>8.5183452278697695e-07</v>
+      </c>
+      <c r="L42">
+        <v>2.2202322395346523e-14</v>
+      </c>
+      <c r="M42">
+        <v>0.0015637293717555604</v>
+      </c>
+      <c r="N42">
+        <v>3.7191956957916146e-07</v>
+      </c>
+      <c r="O42">
+        <v>0.0066202154166629867</v>
+      </c>
+      <c r="P42">
+        <v>2.2202322395346523e-14</v>
+      </c>
+      <c r="Q42">
+        <v>2.2202322395346523e-14</v>
+      </c>
+      <c r="R42">
+        <v>2.2202322395346523e-14</v>
+      </c>
+      <c r="S42">
+        <v>7</v>
+      </c>
+      <c r="T42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B43">
+        <v>2.220283664295677e-14</v>
+      </c>
+      <c r="C43">
+        <v>2.220283664295677e-14</v>
+      </c>
+      <c r="D43">
+        <v>1.3870807828873853e-10</v>
+      </c>
+      <c r="E43">
+        <v>2.220283664295677e-14</v>
+      </c>
+      <c r="F43">
+        <v>2.220283664295677e-14</v>
+      </c>
+      <c r="G43">
+        <v>0.0020612058054029886</v>
+      </c>
+      <c r="H43">
+        <v>0.98840594803822668</v>
+      </c>
+      <c r="I43">
+        <v>2.220283664295677e-14</v>
+      </c>
+      <c r="J43">
+        <v>2.220283664295677e-14</v>
+      </c>
+      <c r="K43">
+        <v>1.0382632364246626e-06</v>
+      </c>
+      <c r="L43">
+        <v>2.220283664295677e-14</v>
+      </c>
+      <c r="M43">
+        <v>0.0019261614626722911</v>
+      </c>
+      <c r="N43">
+        <v>4.1611449492587841e-07</v>
+      </c>
+      <c r="O43">
+        <v>0.0076052301770366051</v>
+      </c>
+      <c r="P43">
+        <v>2.220283664295677e-14</v>
+      </c>
+      <c r="Q43">
+        <v>2.220283664295677e-14</v>
+      </c>
+      <c r="R43">
+        <v>2.220283664295677e-14</v>
+      </c>
+      <c r="S43">
+        <v>7</v>
+      </c>
+      <c r="T43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="B44">
+        <v>2.2203172270423518e-14</v>
+      </c>
+      <c r="C44">
+        <v>2.2203172270423518e-14</v>
+      </c>
+      <c r="D44">
+        <v>2.2203172270423518e-14</v>
+      </c>
+      <c r="E44">
+        <v>2.2203172270423518e-14</v>
+      </c>
+      <c r="F44">
+        <v>2.2203172270423518e-14</v>
+      </c>
+      <c r="G44">
+        <v>0.00097583572956137787</v>
+      </c>
+      <c r="H44">
+        <v>2.2203172270423518e-14</v>
+      </c>
+      <c r="I44">
+        <v>0.98921219184440179</v>
+      </c>
+      <c r="J44">
+        <v>2.2203172270423518e-14</v>
+      </c>
+      <c r="K44">
+        <v>1.6484183244003863e-07</v>
+      </c>
+      <c r="L44">
+        <v>2.2203172270423518e-14</v>
+      </c>
+      <c r="M44">
+        <v>0.004940386121954559</v>
+      </c>
+      <c r="N44">
+        <v>1.2153730508823466e-07</v>
+      </c>
+      <c r="O44">
+        <v>0.0048712999247005756</v>
+      </c>
+      <c r="P44">
+        <v>2.2203172270423518e-14</v>
+      </c>
+      <c r="Q44">
+        <v>2.2203172270423518e-14</v>
+      </c>
+      <c r="R44">
+        <v>2.2203172270423518e-14</v>
+      </c>
+      <c r="S44">
+        <v>8</v>
+      </c>
+      <c r="T44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B45">
+        <v>2.2202368804293504e-14</v>
+      </c>
+      <c r="C45">
+        <v>2.2202368804293504e-14</v>
+      </c>
+      <c r="D45">
+        <v>2.2202368804293504e-14</v>
+      </c>
+      <c r="E45">
+        <v>2.2202368804293504e-14</v>
+      </c>
+      <c r="F45">
+        <v>2.2202368804293504e-14</v>
+      </c>
+      <c r="G45">
+        <v>0.0021948894886784664</v>
+      </c>
+      <c r="H45">
+        <v>2.2202368804293504e-14</v>
+      </c>
+      <c r="I45">
+        <v>0.98580090734349046</v>
+      </c>
+      <c r="J45">
+        <v>2.2202368804293504e-14</v>
+      </c>
+      <c r="K45">
+        <v>2.0714248169952408e-06</v>
+      </c>
+      <c r="L45">
+        <v>2.2202368804293504e-14</v>
+      </c>
+      <c r="M45">
+        <v>0.010784802856504442</v>
+      </c>
+      <c r="N45">
+        <v>1.8223069457089585e-07</v>
+      </c>
+      <c r="O45">
+        <v>0.001217146655570681</v>
+      </c>
+      <c r="P45">
+        <v>2.2202368804293504e-14</v>
+      </c>
+      <c r="Q45">
+        <v>2.2202368804293504e-14</v>
+      </c>
+      <c r="R45">
+        <v>2.2202368804293504e-14</v>
+      </c>
+      <c r="S45">
+        <v>8</v>
+      </c>
+      <c r="T45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="B46">
+        <v>2.220211428509318e-14</v>
+      </c>
+      <c r="C46">
+        <v>2.220211428509318e-14</v>
+      </c>
+      <c r="D46">
+        <v>2.220211428509318e-14</v>
+      </c>
+      <c r="E46">
+        <v>2.220211428509318e-14</v>
+      </c>
+      <c r="F46">
+        <v>2.220211428509318e-14</v>
+      </c>
+      <c r="G46">
+        <v>0.0021264296328160123</v>
+      </c>
+      <c r="H46">
+        <v>2.220211428509318e-14</v>
+      </c>
+      <c r="I46">
+        <v>0.98573797047988976</v>
+      </c>
+      <c r="J46">
+        <v>2.220211428509318e-14</v>
+      </c>
+      <c r="K46">
+        <v>5.23391112959299e-06</v>
+      </c>
+      <c r="L46">
+        <v>2.220211428509318e-14</v>
+      </c>
+      <c r="M46">
+        <v>0.011318223607186307</v>
+      </c>
+      <c r="N46">
+        <v>1.768405030432912e-07</v>
+      </c>
+      <c r="O46">
+        <v>0.00081196552823091658</v>
+      </c>
+      <c r="P46">
+        <v>2.220211428509318e-14</v>
+      </c>
+      <c r="Q46">
+        <v>2.220211428509318e-14</v>
+      </c>
+      <c r="R46">
+        <v>2.220211428509318e-14</v>
+      </c>
+      <c r="S46">
+        <v>8</v>
+      </c>
+      <c r="T46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="B47">
+        <v>2.2202130530828729e-14</v>
+      </c>
+      <c r="C47">
+        <v>2.2202130530828729e-14</v>
+      </c>
+      <c r="D47">
+        <v>4.2480730778307323e-12</v>
+      </c>
+      <c r="E47">
+        <v>2.2202130530828729e-14</v>
+      </c>
+      <c r="F47">
+        <v>2.2202130530828729e-14</v>
+      </c>
+      <c r="G47">
+        <v>8.3469741346912051e-05</v>
+      </c>
+      <c r="H47">
+        <v>2.2202130530828729e-14</v>
+      </c>
+      <c r="I47">
+        <v>0.98852252778314875</v>
+      </c>
+      <c r="J47">
+        <v>2.2202130530828729e-14</v>
+      </c>
+      <c r="K47">
+        <v>1.0717987467354466e-07</v>
+      </c>
+      <c r="L47">
+        <v>2.2202130530828729e-14</v>
+      </c>
+      <c r="M47">
+        <v>0.0022458824304770332</v>
+      </c>
+      <c r="N47">
+        <v>1.495537899044883e-07</v>
+      </c>
+      <c r="O47">
+        <v>0.0091478633068927256</v>
+      </c>
+      <c r="P47">
+        <v>2.2202130530828729e-14</v>
+      </c>
+      <c r="Q47">
+        <v>2.2202130530828729e-14</v>
+      </c>
+      <c r="R47">
+        <v>2.2202130530828729e-14</v>
+      </c>
+      <c r="S47">
+        <v>8</v>
+      </c>
+      <c r="T47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B48">
+        <v>2.2202685695232306e-14</v>
+      </c>
+      <c r="C48">
+        <v>2.2202685695232306e-14</v>
+      </c>
+      <c r="D48">
+        <v>2.2202685695232306e-14</v>
+      </c>
+      <c r="E48">
+        <v>2.2202685695232306e-14</v>
+      </c>
+      <c r="F48">
+        <v>2.2202685695232306e-14</v>
+      </c>
+      <c r="G48">
+        <v>0.0023395627109367508</v>
+      </c>
+      <c r="H48">
+        <v>2.2202685695232306e-14</v>
+      </c>
+      <c r="I48">
+        <v>0.98931966193019849</v>
+      </c>
+      <c r="J48">
+        <v>2.2202685695232306e-14</v>
+      </c>
+      <c r="K48">
+        <v>2.3696241593279057e-06</v>
+      </c>
+      <c r="L48">
+        <v>2.2202685695232306e-14</v>
+      </c>
+      <c r="M48">
+        <v>0.0071740664595148851</v>
+      </c>
+      <c r="N48">
+        <v>9.4589946715258316e-08</v>
+      </c>
+      <c r="O48">
+        <v>0.0011642446849997737</v>
+      </c>
+      <c r="P48">
+        <v>2.2202685695232306e-14</v>
+      </c>
+      <c r="Q48">
+        <v>2.2202685695232306e-14</v>
+      </c>
+      <c r="R48">
+        <v>2.2202685695232306e-14</v>
+      </c>
+      <c r="S48">
+        <v>8</v>
+      </c>
+      <c r="T48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="B49">
+        <v>2.2201876286834977e-14</v>
+      </c>
+      <c r="C49">
+        <v>2.2201876286834977e-14</v>
+      </c>
+      <c r="D49">
+        <v>2.2201876286834977e-14</v>
+      </c>
+      <c r="E49">
+        <v>2.2201876286834977e-14</v>
+      </c>
+      <c r="F49">
+        <v>2.2201876286834977e-14</v>
+      </c>
+      <c r="G49">
+        <v>0.0010873587198604881</v>
+      </c>
+      <c r="H49">
+        <v>2.2201876286834977e-14</v>
+      </c>
+      <c r="I49">
+        <v>0.98754282035134855</v>
+      </c>
+      <c r="J49">
+        <v>2.2201876286834977e-14</v>
+      </c>
+      <c r="K49">
+        <v>3.7434244604847466e-06</v>
+      </c>
+      <c r="L49">
+        <v>2.2201876286834977e-14</v>
+      </c>
+      <c r="M49">
+        <v>0.010228874640576929</v>
+      </c>
+      <c r="N49">
+        <v>7.7265101385657337e-08</v>
+      </c>
+      <c r="O49">
+        <v>0.0011371255984078618</v>
+      </c>
+      <c r="P49">
+        <v>2.2201876286834977e-14</v>
+      </c>
+      <c r="Q49">
+        <v>2.2201876286834977e-14</v>
+      </c>
+      <c r="R49">
+        <v>2.2201876286834977e-14</v>
+      </c>
+      <c r="S49">
+        <v>8</v>
+      </c>
+      <c r="T49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="B50">
+        <v>1.3644150732820518e-09</v>
+      </c>
+      <c r="C50">
+        <v>1.3644150732820518e-09</v>
+      </c>
+      <c r="D50">
+        <v>0.0051535823250706009</v>
+      </c>
+      <c r="E50">
+        <v>1.3644150732820516e-09</v>
+      </c>
+      <c r="F50">
+        <v>1.3644150732820501e-09</v>
+      </c>
+      <c r="G50">
+        <v>0.20815262719850866</v>
+      </c>
+      <c r="H50">
+        <v>1.3644150732820499e-09</v>
+      </c>
+      <c r="I50">
+        <v>1.3644150732820497e-09</v>
+      </c>
+      <c r="J50">
+        <v>1.3644150732820499e-09</v>
+      </c>
+      <c r="K50">
+        <v>0.059385304934324125</v>
+      </c>
+      <c r="L50">
+        <v>1.3644150732820497e-09</v>
+      </c>
+      <c r="M50">
+        <v>0.40829263231783225</v>
+      </c>
+      <c r="N50">
+        <v>0.103055311420347</v>
+      </c>
+      <c r="O50">
+        <v>0.21596052679535169</v>
+      </c>
+      <c r="P50">
+        <v>1.3644150732820528e-09</v>
+      </c>
+      <c r="Q50">
+        <v>1.3644150732820528e-09</v>
+      </c>
+      <c r="R50">
+        <v>1.3644150732820522e-09</v>
+      </c>
+      <c r="S50">
+        <v>12</v>
+      </c>
+      <c r="T50">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="B51">
+        <v>2.2203380701321206e-14</v>
+      </c>
+      <c r="C51">
+        <v>2.2203380701321206e-14</v>
+      </c>
+      <c r="D51">
+        <v>4.0996840603062473e-13</v>
+      </c>
+      <c r="E51">
+        <v>2.2203380701321206e-14</v>
+      </c>
+      <c r="F51">
+        <v>2.2203380701321206e-14</v>
+      </c>
+      <c r="G51">
+        <v>0.0015909003015466957</v>
+      </c>
+      <c r="H51">
+        <v>2.2203380701321206e-14</v>
+      </c>
+      <c r="I51">
+        <v>0.98800472107615078</v>
+      </c>
+      <c r="J51">
+        <v>2.2203380701321206e-14</v>
+      </c>
+      <c r="K51">
+        <v>3.1666487520504024e-07</v>
+      </c>
+      <c r="L51">
+        <v>2.2203380701321206e-14</v>
+      </c>
+      <c r="M51">
+        <v>0.0059174655932616917</v>
+      </c>
+      <c r="N51">
+        <v>3.3357542311896739e-07</v>
+      </c>
+      <c r="O51">
+        <v>0.0044862627881105781</v>
+      </c>
+      <c r="P51">
+        <v>2.2203380701321206e-14</v>
+      </c>
+      <c r="Q51">
+        <v>2.2203380701321206e-14</v>
+      </c>
+      <c r="R51">
+        <v>2.2203380701321206e-14</v>
+      </c>
+      <c r="S51">
+        <v>8</v>
+      </c>
+      <c r="T51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="B52">
+        <v>2.2201407089248755e-14</v>
+      </c>
+      <c r="C52">
+        <v>2.2201407089248755e-14</v>
+      </c>
+      <c r="D52">
+        <v>2.5775055356881644e-08</v>
+      </c>
+      <c r="E52">
+        <v>2.2201407089248755e-14</v>
+      </c>
+      <c r="F52">
+        <v>2.2201407089248755e-14</v>
+      </c>
+      <c r="G52">
+        <v>0.00033237043177025059</v>
+      </c>
+      <c r="H52">
+        <v>2.2201407089248755e-14</v>
+      </c>
+      <c r="I52">
+        <v>2.2201407089248755e-14</v>
+      </c>
+      <c r="J52">
+        <v>0.99583812809898586</v>
+      </c>
+      <c r="K52">
+        <v>6.8006036972317668e-06</v>
+      </c>
+      <c r="L52">
+        <v>2.2201407089248755e-14</v>
+      </c>
+      <c r="M52">
+        <v>0.0026104282583526645</v>
+      </c>
+      <c r="N52">
+        <v>1.1774321704496051e-07</v>
+      </c>
+      <c r="O52">
+        <v>0.0012121290886996561</v>
+      </c>
+      <c r="P52">
+        <v>2.2201407089248755e-14</v>
+      </c>
+      <c r="Q52">
+        <v>2.2201407089248755e-14</v>
+      </c>
+      <c r="R52">
+        <v>2.2201407089248755e-14</v>
+      </c>
+      <c r="S52">
+        <v>9</v>
+      </c>
+      <c r="T52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="B53">
+        <v>2.2203189557283516e-14</v>
+      </c>
+      <c r="C53">
+        <v>2.2203189557283516e-14</v>
+      </c>
+      <c r="D53">
+        <v>9.5741793529519896e-09</v>
+      </c>
+      <c r="E53">
+        <v>2.2203189557283516e-14</v>
+      </c>
+      <c r="F53">
+        <v>2.2203189557283516e-14</v>
+      </c>
+      <c r="G53">
+        <v>0.0012482868676256689</v>
+      </c>
+      <c r="H53">
+        <v>2.2203189557283516e-14</v>
+      </c>
+      <c r="I53">
+        <v>2.2203189557283516e-14</v>
+      </c>
+      <c r="J53">
+        <v>0.98945182984626556</v>
+      </c>
+      <c r="K53">
+        <v>2.0461091141719552e-07</v>
+      </c>
+      <c r="L53">
+        <v>2.2203189557283516e-14</v>
+      </c>
+      <c r="M53">
+        <v>0.0044640467486838746</v>
+      </c>
+      <c r="N53">
+        <v>1.9924086283887573e-06</v>
+      </c>
+      <c r="O53">
+        <v>0.0048336299434837927</v>
+      </c>
+      <c r="P53">
+        <v>2.2203189557283516e-14</v>
+      </c>
+      <c r="Q53">
+        <v>2.2203189557283516e-14</v>
+      </c>
+      <c r="R53">
+        <v>2.2203189557283516e-14</v>
+      </c>
+      <c r="S53">
+        <v>9</v>
+      </c>
+      <c r="T53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="B54">
+        <v>2.2202814433657802e-14</v>
+      </c>
+      <c r="C54">
+        <v>2.2202814433657802e-14</v>
+      </c>
+      <c r="D54">
+        <v>6.2309309576745334e-11</v>
+      </c>
+      <c r="E54">
+        <v>2.2202814433657802e-14</v>
+      </c>
+      <c r="F54">
+        <v>2.2202814433657802e-14</v>
+      </c>
+      <c r="G54">
+        <v>0.0013346318883853583</v>
+      </c>
+      <c r="H54">
+        <v>2.2202814433657802e-14</v>
+      </c>
+      <c r="I54">
+        <v>2.2202814433657802e-14</v>
+      </c>
+      <c r="J54">
+        <v>0.98537147487415222</v>
+      </c>
+      <c r="K54">
+        <v>1.9413961764405577e-07</v>
+      </c>
+      <c r="L54">
+        <v>2.2202814433657802e-14</v>
+      </c>
+      <c r="M54">
+        <v>0.0030628743339485352</v>
+      </c>
+      <c r="N54">
+        <v>1.1007792547988025e-06</v>
+      </c>
+      <c r="O54">
+        <v>0.010229723922110115</v>
+      </c>
+      <c r="P54">
+        <v>2.2202814433657802e-14</v>
+      </c>
+      <c r="Q54">
+        <v>2.2202814433657802e-14</v>
+      </c>
+      <c r="R54">
+        <v>2.2202814433657802e-14</v>
+      </c>
+      <c r="S54">
+        <v>9</v>
+      </c>
+      <c r="T54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B55">
+        <v>2.2203251428479543e-14</v>
+      </c>
+      <c r="C55">
+        <v>2.2203251428479543e-14</v>
+      </c>
+      <c r="D55">
+        <v>6.248709115730791e-10</v>
+      </c>
+      <c r="E55">
+        <v>2.2203251428479543e-14</v>
+      </c>
+      <c r="F55">
+        <v>2.2203251428479543e-14</v>
+      </c>
+      <c r="G55">
+        <v>0.00071099585361808785</v>
+      </c>
+      <c r="H55">
+        <v>2.2203251428479543e-14</v>
+      </c>
+      <c r="I55">
+        <v>2.2203251428479543e-14</v>
+      </c>
+      <c r="J55">
+        <v>0.98806278115730028</v>
+      </c>
+      <c r="K55">
+        <v>1.990023364843516e-07</v>
+      </c>
+      <c r="L55">
+        <v>2.2203251428479543e-14</v>
+      </c>
+      <c r="M55">
+        <v>0.0050349919770709441</v>
+      </c>
+      <c r="N55">
+        <v>1.2384558133314965e-06</v>
+      </c>
+      <c r="O55">
+        <v>0.006189792928767977</v>
+      </c>
+      <c r="P55">
+        <v>2.2203251428479543e-14</v>
+      </c>
+      <c r="Q55">
+        <v>2.2203251428479543e-14</v>
+      </c>
+      <c r="R55">
+        <v>2.2203251428479543e-14</v>
+      </c>
+      <c r="S55">
+        <v>9</v>
+      </c>
+      <c r="T55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B56">
+        <v>2.2200804366274621e-14</v>
+      </c>
+      <c r="C56">
+        <v>2.2200804366274621e-14</v>
+      </c>
+      <c r="D56">
+        <v>1.639413799880825e-12</v>
+      </c>
+      <c r="E56">
+        <v>2.2200804366274621e-14</v>
+      </c>
+      <c r="F56">
+        <v>2.2200804366274621e-14</v>
+      </c>
+      <c r="G56">
+        <v>3.5544012959578567e-07</v>
+      </c>
+      <c r="H56">
+        <v>2.2200804366274621e-14</v>
+      </c>
+      <c r="I56">
+        <v>2.2200804366274621e-14</v>
+      </c>
+      <c r="J56">
+        <v>0.99631190990636709</v>
+      </c>
+      <c r="K56">
+        <v>1.7023779283379616e-10</v>
+      </c>
+      <c r="L56">
+        <v>2.2200804366274621e-14</v>
+      </c>
+      <c r="M56">
+        <v>0.003685857633757728</v>
+      </c>
+      <c r="N56">
+        <v>2.8845232914846571e-07</v>
+      </c>
+      <c r="O56">
+        <v>1.5883953171574964e-06</v>
+      </c>
+      <c r="P56">
+        <v>2.2200804366274621e-14</v>
+      </c>
+      <c r="Q56">
+        <v>2.2200804366274621e-14</v>
+      </c>
+      <c r="R56">
+        <v>2.2200804366274621e-14</v>
+      </c>
+      <c r="S56">
+        <v>9</v>
+      </c>
+      <c r="T56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B57">
+        <v>2.2200796420000143e-14</v>
+      </c>
+      <c r="C57">
+        <v>2.2200796420000143e-14</v>
+      </c>
+      <c r="D57">
+        <v>2.2200796420000143e-14</v>
+      </c>
+      <c r="E57">
+        <v>2.2200796420000143e-14</v>
+      </c>
+      <c r="F57">
+        <v>2.2200796420000143e-14</v>
+      </c>
+      <c r="G57">
+        <v>2.1146091960645697e-06</v>
+      </c>
+      <c r="H57">
+        <v>2.2200796420000143e-14</v>
+      </c>
+      <c r="I57">
+        <v>2.2200796420000143e-14</v>
+      </c>
+      <c r="J57">
+        <v>0.99707513966113137</v>
+      </c>
+      <c r="K57">
+        <v>6.7792062375790021e-08</v>
+      </c>
+      <c r="L57">
+        <v>2.2200796420000143e-14</v>
+      </c>
+      <c r="M57">
+        <v>0.0029189560075714681</v>
+      </c>
+      <c r="N57">
+        <v>6.9710701140129103e-08</v>
+      </c>
+      <c r="O57">
+        <v>3.6522190933154627e-06</v>
+      </c>
+      <c r="P57">
+        <v>2.2200796420000143e-14</v>
+      </c>
+      <c r="Q57">
+        <v>2.2200796420000143e-14</v>
+      </c>
+      <c r="R57">
+        <v>2.2200796420000143e-14</v>
+      </c>
+      <c r="S57">
+        <v>9</v>
+      </c>
+      <c r="T57">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B58">
+        <v>2.2201609833683259e-14</v>
+      </c>
+      <c r="C58">
+        <v>2.2201609833683259e-14</v>
+      </c>
+      <c r="D58">
+        <v>1.8731951208328793e-11</v>
+      </c>
+      <c r="E58">
+        <v>2.2201609833683259e-14</v>
+      </c>
+      <c r="F58">
+        <v>2.2201609833683259e-14</v>
+      </c>
+      <c r="G58">
+        <v>0.0018094139640699074</v>
+      </c>
+      <c r="H58">
+        <v>2.2201609833683259e-14</v>
+      </c>
+      <c r="I58">
+        <v>2.2201609833683259e-14</v>
+      </c>
+      <c r="J58">
+        <v>2.2201609833683259e-14</v>
+      </c>
+      <c r="K58">
+        <v>0.98954611436927653</v>
+      </c>
+      <c r="L58">
+        <v>2.2201609833683259e-14</v>
+      </c>
+      <c r="M58">
+        <v>0.0086279829608090913</v>
+      </c>
+      <c r="N58">
+        <v>4.7474973399437327e-08</v>
+      </c>
+      <c r="O58">
+        <v>1.6441211895008139e-05</v>
+      </c>
+      <c r="P58">
+        <v>2.2201609833683259e-14</v>
+      </c>
+      <c r="Q58">
+        <v>2.2201609833683259e-14</v>
+      </c>
+      <c r="R58">
+        <v>2.2201609833683259e-14</v>
+      </c>
+      <c r="S58">
+        <v>10</v>
+      </c>
+      <c r="T58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B59">
+        <v>2.2200835316216986e-14</v>
+      </c>
+      <c r="C59">
+        <v>2.2200835316216986e-14</v>
+      </c>
+      <c r="D59">
+        <v>3.1440991260872687e-11</v>
+      </c>
+      <c r="E59">
+        <v>2.2200835316216986e-14</v>
+      </c>
+      <c r="F59">
+        <v>2.2200835316216986e-14</v>
+      </c>
+      <c r="G59">
+        <v>1.3918826445927434e-06</v>
+      </c>
+      <c r="H59">
+        <v>2.2200835316216986e-14</v>
+      </c>
+      <c r="I59">
+        <v>2.2200835316216986e-14</v>
+      </c>
+      <c r="J59">
+        <v>2.2200835316216986e-14</v>
+      </c>
+      <c r="K59">
+        <v>0.99396988056474112</v>
+      </c>
+      <c r="L59">
+        <v>2.2200835316216986e-14</v>
+      </c>
+      <c r="M59">
+        <v>0.0058896655412999351</v>
+      </c>
+      <c r="N59">
+        <v>2.4223996494113964e-08</v>
+      </c>
+      <c r="O59">
+        <v>0.00013903775563262231</v>
+      </c>
+      <c r="P59">
+        <v>2.2200835316216986e-14</v>
+      </c>
+      <c r="Q59">
+        <v>2.2200835316216986e-14</v>
+      </c>
+      <c r="R59">
+        <v>2.2200835316216986e-14</v>
+      </c>
+      <c r="S59">
+        <v>10</v>
+      </c>
+      <c r="T59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B60">
+        <v>2.2200817751245172e-14</v>
+      </c>
+      <c r="C60">
+        <v>2.2200817751245172e-14</v>
+      </c>
+      <c r="D60">
+        <v>5.2266378644824471e-10</v>
+      </c>
+      <c r="E60">
+        <v>2.2200817751245172e-14</v>
+      </c>
+      <c r="F60">
+        <v>2.2200817751245172e-14</v>
+      </c>
+      <c r="G60">
+        <v>5.9897339453060979e-08</v>
+      </c>
+      <c r="H60">
+        <v>2.2200817751245172e-14</v>
+      </c>
+      <c r="I60">
+        <v>2.2200817751245172e-14</v>
+      </c>
+      <c r="J60">
+        <v>2.2200817751245172e-14</v>
+      </c>
+      <c r="K60">
+        <v>0.99488335543443118</v>
+      </c>
+      <c r="L60">
+        <v>2.2200817751245172e-14</v>
+      </c>
+      <c r="M60">
+        <v>0.0051042516188446992</v>
+      </c>
+      <c r="N60">
+        <v>1.915352744606883e-08</v>
+      </c>
+      <c r="O60">
+        <v>1.2313372949131351e-05</v>
+      </c>
+      <c r="P60">
+        <v>2.2200817751245172e-14</v>
+      </c>
+      <c r="Q60">
+        <v>2.2200817751245172e-14</v>
+      </c>
+      <c r="R60">
+        <v>2.2200817751245172e-14</v>
+      </c>
+      <c r="S60">
+        <v>10</v>
+      </c>
+      <c r="T60">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B61">
+        <v>2.01632858164018e-12</v>
+      </c>
+      <c r="C61">
+        <v>2.01632858164018e-12</v>
+      </c>
+      <c r="D61">
+        <v>3.4912413112268305e-05</v>
+      </c>
+      <c r="E61">
+        <v>2.0163285816401796e-12</v>
+      </c>
+      <c r="F61">
+        <v>2.0163285816401784e-12</v>
+      </c>
+      <c r="G61">
+        <v>0.00036278296331674058</v>
+      </c>
+      <c r="H61">
+        <v>2.0163285816401747e-12</v>
+      </c>
+      <c r="I61">
+        <v>2.0163285816401731e-12</v>
+      </c>
+      <c r="J61">
+        <v>2.0163285816401747e-12</v>
+      </c>
+      <c r="K61">
+        <v>0.82433491222252742</v>
+      </c>
+      <c r="L61">
+        <v>2.0163285816401755e-12</v>
+      </c>
+      <c r="M61">
+        <v>0.1461676531352665</v>
+      </c>
+      <c r="N61">
+        <v>1.0089592357605847e-05</v>
+      </c>
+      <c r="O61">
+        <v>0.029089649651239471</v>
+      </c>
+      <c r="P61">
+        <v>2.0163285816402123e-12</v>
+      </c>
+      <c r="Q61">
+        <v>2.0163285816402135e-12</v>
+      </c>
+      <c r="R61">
+        <v>2.0163285816402127e-12</v>
+      </c>
+      <c r="S61">
+        <v>10</v>
+      </c>
+      <c r="T61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="B62">
+        <v>4.7375682629501191e-13</v>
+      </c>
+      <c r="C62">
+        <v>4.7375682629501191e-13</v>
+      </c>
+      <c r="D62">
+        <v>5.3786537509355038e-06</v>
+      </c>
+      <c r="E62">
+        <v>4.7375682629501191e-13</v>
+      </c>
+      <c r="F62">
+        <v>4.7375682629501191e-13</v>
+      </c>
+      <c r="G62">
+        <v>4.3918151444106593e-05</v>
+      </c>
+      <c r="H62">
+        <v>4.7375682629501242e-13</v>
+      </c>
+      <c r="I62">
+        <v>4.7375682629501242e-13</v>
+      </c>
+      <c r="J62">
+        <v>4.7375682629501333e-13</v>
+      </c>
+      <c r="K62">
+        <v>0.95955947751983328</v>
+      </c>
+      <c r="L62">
+        <v>4.7375682629501221e-13</v>
+      </c>
+      <c r="M62">
+        <v>0.033592030980651735</v>
+      </c>
+      <c r="N62">
+        <v>1.0160303733664731e-06</v>
+      </c>
+      <c r="O62">
+        <v>0.0067981786587348438</v>
+      </c>
+      <c r="P62">
+        <v>4.7375682629498697e-13</v>
+      </c>
+      <c r="Q62">
+        <v>4.7375682629498697e-13</v>
+      </c>
+      <c r="R62">
+        <v>4.7375682629498586e-13</v>
+      </c>
+      <c r="S62">
+        <v>10</v>
+      </c>
+      <c r="T62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B63">
+        <v>2.2311506453261303e-14</v>
+      </c>
+      <c r="C63">
+        <v>2.2311506453261303e-14</v>
+      </c>
+      <c r="D63">
+        <v>1.0014833224590021e-12</v>
+      </c>
+      <c r="E63">
+        <v>2.2311506453261303e-14</v>
+      </c>
+      <c r="F63">
+        <v>0.49378299524443386</v>
+      </c>
+      <c r="G63">
+        <v>6.5434205395290907e-09</v>
+      </c>
+      <c r="H63">
+        <v>2.2311506453261303e-14</v>
+      </c>
+      <c r="I63">
+        <v>2.2311506453261303e-14</v>
+      </c>
+      <c r="J63">
+        <v>2.2311506453261303e-14</v>
+      </c>
+      <c r="K63">
+        <v>6.7663120484938949e-08</v>
+      </c>
+      <c r="L63">
+        <v>0.022576717447847346</v>
+      </c>
+      <c r="M63">
+        <v>0.0016433166310945793</v>
+      </c>
+      <c r="N63">
+        <v>0.48199689646881627</v>
+      </c>
+      <c r="O63">
+        <v>6.4464504168350926e-14</v>
+      </c>
+      <c r="P63">
+        <v>2.2311506453261303e-14</v>
+      </c>
+      <c r="Q63">
+        <v>2.2311506453261303e-14</v>
+      </c>
+      <c r="R63">
+        <v>2.2311506453261303e-14</v>
+      </c>
+      <c r="S63">
+        <v>5</v>
+      </c>
+      <c r="T63">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B64">
+        <v>2.2200873730517507e-14</v>
+      </c>
+      <c r="C64">
+        <v>2.2200873730517507e-14</v>
+      </c>
+      <c r="D64">
+        <v>1.015049306316411e-08</v>
+      </c>
+      <c r="E64">
+        <v>2.2200873730517507e-14</v>
+      </c>
+      <c r="F64">
+        <v>2.2200873730517507e-14</v>
+      </c>
+      <c r="G64">
+        <v>2.5930319423488101e-07</v>
+      </c>
+      <c r="H64">
+        <v>2.2200873730517507e-14</v>
+      </c>
+      <c r="I64">
+        <v>2.2200873730517507e-14</v>
+      </c>
+      <c r="J64">
+        <v>2.2200873730517507e-14</v>
+      </c>
+      <c r="K64">
+        <v>4.6371815738258883e-05</v>
+      </c>
+      <c r="L64">
+        <v>0.99517605227110117</v>
+      </c>
+      <c r="M64">
+        <v>0.0047247807753935667</v>
+      </c>
+      <c r="N64">
+        <v>4.4150976775378769e-07</v>
+      </c>
+      <c r="O64">
+        <v>5.2084174089876939e-05</v>
+      </c>
+      <c r="P64">
+        <v>2.2200873730517507e-14</v>
+      </c>
+      <c r="Q64">
+        <v>2.2200873730517507e-14</v>
+      </c>
+      <c r="R64">
+        <v>2.2200873730517507e-14</v>
+      </c>
+      <c r="S64">
+        <v>11</v>
+      </c>
+      <c r="T64">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B65">
+        <v>2.2202713169466908e-14</v>
+      </c>
+      <c r="C65">
+        <v>2.2202713169466908e-14</v>
+      </c>
+      <c r="D65">
+        <v>4.4655228561164894e-11</v>
+      </c>
+      <c r="E65">
+        <v>2.2202713169466908e-14</v>
+      </c>
+      <c r="F65">
+        <v>2.2202713169466908e-14</v>
+      </c>
+      <c r="G65">
+        <v>3.8359095304207621e-08</v>
+      </c>
+      <c r="H65">
+        <v>2.2202713169466908e-14</v>
+      </c>
+      <c r="I65">
+        <v>2.2202713169466908e-14</v>
+      </c>
+      <c r="J65">
+        <v>2.2202713169466908e-14</v>
+      </c>
+      <c r="K65">
+        <v>2.6815668535312924e-05</v>
+      </c>
+      <c r="L65">
+        <v>0.99007028237202466</v>
+      </c>
+      <c r="M65">
+        <v>0.0063149597843989748</v>
+      </c>
+      <c r="N65">
+        <v>0.0035879032212348667</v>
+      </c>
+      <c r="O65">
+        <v>5.4983355723097525e-10</v>
+      </c>
+      <c r="P65">
+        <v>2.2202713169466908e-14</v>
+      </c>
+      <c r="Q65">
+        <v>2.2202713169466908e-14</v>
+      </c>
+      <c r="R65">
+        <v>2.2202713169466908e-14</v>
+      </c>
+      <c r="S65">
+        <v>11</v>
+      </c>
+      <c r="T65">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B66">
+        <v>1.8313610550267394e-13</v>
+      </c>
+      <c r="C66">
+        <v>1.8313610550267394e-13</v>
+      </c>
+      <c r="D66">
+        <v>1.8313610550281373e-13</v>
+      </c>
+      <c r="E66">
+        <v>1.8313610550267472e-13</v>
+      </c>
+      <c r="F66">
+        <v>1.8313610550267391e-13</v>
+      </c>
+      <c r="G66">
+        <v>0.00065357774764013981</v>
+      </c>
+      <c r="H66">
+        <v>1.8313610550268888e-13</v>
+      </c>
+      <c r="I66">
+        <v>1.831361055026887e-13</v>
+      </c>
+      <c r="J66">
+        <v>1.831361055026887e-13</v>
+      </c>
+      <c r="K66">
+        <v>8.1223181148632494e-07</v>
+      </c>
+      <c r="L66">
+        <v>1.8313610550268991e-13</v>
+      </c>
+      <c r="M66">
+        <v>0.98095391422753719</v>
+      </c>
+      <c r="N66">
+        <v>4.1841680274866025e-06</v>
+      </c>
+      <c r="O66">
+        <v>0.018387511622786155</v>
+      </c>
+      <c r="P66">
+        <v>1.8313610550268938e-13</v>
+      </c>
+      <c r="Q66">
+        <v>1.831361055026906e-13</v>
+      </c>
+      <c r="R66">
+        <v>1.8313610550268938e-13</v>
+      </c>
+      <c r="S66">
+        <v>12</v>
+      </c>
+      <c r="T66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B67">
+        <v>3.5044714292146563e-14</v>
+      </c>
+      <c r="C67">
+        <v>3.5044714292146563e-14</v>
+      </c>
+      <c r="D67">
+        <v>3.504471429214667e-14</v>
+      </c>
+      <c r="E67">
+        <v>3.5044714292146664e-14</v>
+      </c>
+      <c r="F67">
+        <v>3.5044714292146607e-14</v>
+      </c>
+      <c r="G67">
+        <v>6.3129050229257058e-05</v>
+      </c>
+      <c r="H67">
+        <v>3.5044714292146563e-14</v>
+      </c>
+      <c r="I67">
+        <v>3.5044714292146512e-14</v>
+      </c>
+      <c r="J67">
+        <v>3.5044714292146544e-14</v>
+      </c>
+      <c r="K67">
+        <v>8.3550149114245542e-08</v>
+      </c>
+      <c r="L67">
+        <v>3.5044714292146525e-14</v>
+      </c>
+      <c r="M67">
+        <v>0.98727303100017472</v>
+      </c>
+      <c r="N67">
+        <v>4.3055975110198791e-07</v>
+      </c>
+      <c r="O67">
+        <v>0.012663325839275178</v>
+      </c>
+      <c r="P67">
+        <v>3.5044714292146525e-14</v>
+      </c>
+      <c r="Q67">
+        <v>3.5044714292146557e-14</v>
+      </c>
+      <c r="R67">
+        <v>3.5044714292146525e-14</v>
+      </c>
+      <c r="S67">
+        <v>12</v>
+      </c>
+      <c r="T67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="B68">
+        <v>1.4121908211517025e-11</v>
+      </c>
+      <c r="C68">
+        <v>1.4121908211517025e-11</v>
+      </c>
+      <c r="D68">
+        <v>2.16545927696518e-06</v>
+      </c>
+      <c r="E68">
+        <v>1.4121908211517025e-11</v>
+      </c>
+      <c r="F68">
+        <v>1.4121908211517025e-11</v>
+      </c>
+      <c r="G68">
+        <v>0.071765591133306966</v>
+      </c>
+      <c r="H68">
+        <v>1.4121908211517257e-11</v>
+      </c>
+      <c r="I68">
+        <v>1.4121908211517257e-11</v>
+      </c>
+      <c r="J68">
+        <v>1.4121908211517257e-11</v>
+      </c>
+      <c r="K68">
+        <v>0.00017616441432751685</v>
+      </c>
+      <c r="L68">
+        <v>1.4121908211517236e-11</v>
+      </c>
+      <c r="M68">
+        <v>0.74310596314389998</v>
+      </c>
+      <c r="N68">
+        <v>0.0013349285466554245</v>
+      </c>
+      <c r="O68">
+        <v>0.18361518714719194</v>
+      </c>
+      <c r="P68">
+        <v>1.4121908211517249e-11</v>
+      </c>
+      <c r="Q68">
+        <v>1.4121908211517249e-11</v>
+      </c>
+      <c r="R68">
+        <v>1.4121908211517248e-11</v>
+      </c>
+      <c r="S68">
+        <v>12</v>
+      </c>
+      <c r="T68">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B69">
+        <v>9.0532839229958611e-12</v>
+      </c>
+      <c r="C69">
+        <v>9.0532839229958611e-12</v>
+      </c>
+      <c r="D69">
+        <v>5.0053634067090005e-06</v>
+      </c>
+      <c r="E69">
+        <v>9.0532839229958611e-12</v>
+      </c>
+      <c r="F69">
+        <v>9.0532839229958466e-12</v>
+      </c>
+      <c r="G69">
+        <v>0.055421257173378861</v>
+      </c>
+      <c r="H69">
+        <v>9.0532839229958466e-12</v>
+      </c>
+      <c r="I69">
+        <v>9.0532839229958466e-12</v>
+      </c>
+      <c r="J69">
+        <v>9.0532839229958466e-12</v>
+      </c>
+      <c r="K69">
+        <v>0.00012526338072367901</v>
+      </c>
+      <c r="L69">
+        <v>9.0532839229957157e-12</v>
+      </c>
+      <c r="M69">
+        <v>0.79656674183851217</v>
+      </c>
+      <c r="N69">
+        <v>0.001419691506180591</v>
+      </c>
+      <c r="O69">
+        <v>0.14646204063821208</v>
+      </c>
+      <c r="P69">
+        <v>9.0532839229957157e-12</v>
+      </c>
+      <c r="Q69">
+        <v>9.0532839229957157e-12</v>
+      </c>
+      <c r="R69">
+        <v>9.0532839229957157e-12</v>
+      </c>
+      <c r="S69">
+        <v>12</v>
+      </c>
+      <c r="T69">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="B70">
+        <v>1.2733301599037334e-12</v>
+      </c>
+      <c r="C70">
+        <v>1.2733301599037334e-12</v>
+      </c>
+      <c r="D70">
+        <v>1.2733301599037334e-12</v>
+      </c>
+      <c r="E70">
+        <v>1.2733301599037366e-12</v>
+      </c>
+      <c r="F70">
+        <v>1.273330159903735e-12</v>
+      </c>
+      <c r="G70">
+        <v>0.0074220921377893944</v>
+      </c>
+      <c r="H70">
+        <v>1.273330159903734e-12</v>
+      </c>
+      <c r="I70">
+        <v>1.2733301599037308e-12</v>
+      </c>
+      <c r="J70">
+        <v>1.2733301599037332e-12</v>
+      </c>
+      <c r="K70">
+        <v>0.0043437938433576479</v>
+      </c>
+      <c r="L70">
+        <v>1.2733301599037299e-12</v>
+      </c>
+      <c r="M70">
+        <v>0.96998856643699471</v>
+      </c>
+      <c r="N70">
+        <v>0.00017120720147932234</v>
+      </c>
+      <c r="O70">
+        <v>0.018074340365098873</v>
+      </c>
+      <c r="P70">
+        <v>1.2733301599038291e-12</v>
+      </c>
+      <c r="Q70">
+        <v>1.2733301599038325e-12</v>
+      </c>
+      <c r="R70">
+        <v>1.2733301599038291e-12</v>
+      </c>
+      <c r="S70">
+        <v>12</v>
+      </c>
+      <c r="T70">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="B71">
+        <v>2.222268563966347e-14</v>
+      </c>
+      <c r="C71">
+        <v>2.222268563966347e-14</v>
+      </c>
+      <c r="D71">
+        <v>2.222268563966347e-14</v>
+      </c>
+      <c r="E71">
+        <v>2.222268563966347e-14</v>
+      </c>
+      <c r="F71">
+        <v>2.222268563966347e-14</v>
+      </c>
+      <c r="G71">
+        <v>0.027791156368698409</v>
+      </c>
+      <c r="H71">
+        <v>2.222268563966347e-14</v>
+      </c>
+      <c r="I71">
+        <v>2.222268563966347e-14</v>
+      </c>
+      <c r="J71">
+        <v>2.222268563966347e-14</v>
+      </c>
+      <c r="K71">
+        <v>4.5116003078773184e-05</v>
+      </c>
+      <c r="L71">
+        <v>2.222268563966347e-14</v>
+      </c>
+      <c r="M71">
+        <v>0.82598717450887627</v>
+      </c>
+      <c r="N71">
+        <v>2.1238561159633825e-06</v>
+      </c>
+      <c r="O71">
+        <v>0.14617442926296387</v>
+      </c>
+      <c r="P71">
+        <v>2.222268563966347e-14</v>
+      </c>
+      <c r="Q71">
+        <v>2.222268563966347e-14</v>
+      </c>
+      <c r="R71">
+        <v>2.222268563966347e-14</v>
+      </c>
+      <c r="S71">
+        <v>12</v>
+      </c>
+      <c r="T71">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="B72">
+        <v>2.7955162067789498e-14</v>
+      </c>
+      <c r="C72">
+        <v>2.7955162067789498e-14</v>
+      </c>
+      <c r="D72">
+        <v>2.7955162067789505e-14</v>
+      </c>
+      <c r="E72">
+        <v>2.7955162067789498e-14</v>
+      </c>
+      <c r="F72">
+        <v>2.7955162067789498e-14</v>
+      </c>
+      <c r="G72">
+        <v>0.017781903640934904</v>
+      </c>
+      <c r="H72">
+        <v>2.7955162067790044e-14</v>
+      </c>
+      <c r="I72">
+        <v>2.7955162067790038e-14</v>
+      </c>
+      <c r="J72">
+        <v>2.7955162067790038e-14</v>
+      </c>
+      <c r="K72">
+        <v>0.00060962700510799352</v>
+      </c>
+      <c r="L72">
+        <v>2.7955162067789946e-14</v>
+      </c>
+      <c r="M72">
+        <v>0.95733205251729481</v>
+      </c>
+      <c r="N72">
+        <v>3.2257823694449534e-05</v>
+      </c>
+      <c r="O72">
+        <v>0.024244159012632303</v>
+      </c>
+      <c r="P72">
+        <v>2.7955162067789962e-14</v>
+      </c>
+      <c r="Q72">
+        <v>2.7955162067789972e-14</v>
+      </c>
+      <c r="R72">
+        <v>2.7955162067789965e-14</v>
+      </c>
+      <c r="S72">
+        <v>12</v>
+      </c>
+      <c r="T72">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="B73">
+        <v>6.0806249063906905e-14</v>
+      </c>
+      <c r="C73">
+        <v>6.0806249063906905e-14</v>
+      </c>
+      <c r="D73">
+        <v>0.0036182801528362022</v>
+      </c>
+      <c r="E73">
+        <v>6.0806249063906905e-14</v>
+      </c>
+      <c r="F73">
+        <v>6.0806249063906955e-14</v>
+      </c>
+      <c r="G73">
+        <v>0.0055132192122806694</v>
+      </c>
+      <c r="H73">
+        <v>6.0806249063906867e-14</v>
+      </c>
+      <c r="I73">
+        <v>6.0806249063906867e-14</v>
+      </c>
+      <c r="J73">
+        <v>6.0806249063906867e-14</v>
+      </c>
+      <c r="K73">
+        <v>8.6460080800432325e-08</v>
+      </c>
+      <c r="L73">
+        <v>6.0806249063905643e-14</v>
+      </c>
+      <c r="M73">
+        <v>0.0054453342303311921</v>
+      </c>
+      <c r="N73">
+        <v>0.94282794986248175</v>
+      </c>
+      <c r="O73">
+        <v>0.042595130081320327</v>
+      </c>
+      <c r="P73">
+        <v>6.0806249063905718e-14</v>
+      </c>
+      <c r="Q73">
+        <v>6.0806249063905731e-14</v>
+      </c>
+      <c r="R73">
+        <v>6.0806249063905718e-14</v>
+      </c>
+      <c r="S73">
+        <v>13</v>
+      </c>
+      <c r="T73">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="B74">
+        <v>6.1915793789309505e-14</v>
+      </c>
+      <c r="C74">
+        <v>6.1915793789309505e-14</v>
+      </c>
+      <c r="D74">
+        <v>7.7323489289370025e-05</v>
+      </c>
+      <c r="E74">
+        <v>6.1915793789309517e-14</v>
+      </c>
+      <c r="F74">
+        <v>6.1915793789309505e-14</v>
+      </c>
+      <c r="G74">
+        <v>0.012809252265890147</v>
+      </c>
+      <c r="H74">
+        <v>6.1915793789309404e-14</v>
+      </c>
+      <c r="I74">
+        <v>6.1915793789309404e-14</v>
+      </c>
+      <c r="J74">
+        <v>6.1915793789309429e-14</v>
+      </c>
+      <c r="K74">
+        <v>1.1161121329910885e-07</v>
+      </c>
+      <c r="L74">
+        <v>6.1915793789309505e-14</v>
+      </c>
+      <c r="M74">
+        <v>0.0042725608221246044</v>
+      </c>
+      <c r="N74">
+        <v>0.9493393241871888</v>
+      </c>
+      <c r="O74">
+        <v>0.033501427623612551</v>
+      </c>
+      <c r="P74">
+        <v>6.1915793789309517e-14</v>
+      </c>
+      <c r="Q74">
+        <v>6.1915793789309517e-14</v>
+      </c>
+      <c r="R74">
+        <v>6.1915793789309517e-14</v>
+      </c>
+      <c r="S74">
+        <v>13</v>
+      </c>
+      <c r="T74">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="B75">
+        <v>3.9517467437502637e-13</v>
+      </c>
+      <c r="C75">
+        <v>3.9517467437502637e-13</v>
+      </c>
+      <c r="D75">
+        <v>7.5448234429751738e-08</v>
+      </c>
+      <c r="E75">
+        <v>3.9517467437502561e-13</v>
+      </c>
+      <c r="F75">
+        <v>3.9517467437502566e-13</v>
+      </c>
+      <c r="G75">
+        <v>0.031391727777609145</v>
+      </c>
+      <c r="H75">
+        <v>3.9517467437502566e-13</v>
+      </c>
+      <c r="I75">
+        <v>3.9517467437502566e-13</v>
+      </c>
+      <c r="J75">
+        <v>3.9517467437502566e-13</v>
+      </c>
+      <c r="K75">
+        <v>6.8600977334710993e-06</v>
+      </c>
+      <c r="L75">
+        <v>3.9517467437502596e-13</v>
+      </c>
+      <c r="M75">
+        <v>0.024984116299826185</v>
+      </c>
+      <c r="N75">
+        <v>0.028397553986342913</v>
+      </c>
+      <c r="O75">
+        <v>0.9152196663859069</v>
+      </c>
+      <c r="P75">
+        <v>3.9517467437502526e-13</v>
+      </c>
+      <c r="Q75">
+        <v>3.9517467437502531e-13</v>
+      </c>
+      <c r="R75">
+        <v>3.9517467437502531e-13</v>
+      </c>
+      <c r="S75">
+        <v>14</v>
+      </c>
+      <c r="T75">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="B76">
+        <v>1.6005734576378161e-13</v>
+      </c>
+      <c r="C76">
+        <v>1.6005734576378161e-13</v>
+      </c>
+      <c r="D76">
+        <v>1.3373923734396247e-09</v>
+      </c>
+      <c r="E76">
+        <v>1.6005734576378217e-13</v>
+      </c>
+      <c r="F76">
+        <v>1.6005734576378217e-13</v>
+      </c>
+      <c r="G76">
+        <v>0.023066538293345838</v>
+      </c>
+      <c r="H76">
+        <v>1.6005734576378184e-13</v>
+      </c>
+      <c r="I76">
+        <v>1.6005734576378179e-13</v>
+      </c>
+      <c r="J76">
+        <v>1.6005734576378184e-13</v>
+      </c>
+      <c r="K76">
+        <v>2.6016839651002762e-06</v>
+      </c>
+      <c r="L76">
+        <v>1.6005734576377656e-13</v>
+      </c>
+      <c r="M76">
+        <v>0.0075345597877290579</v>
+      </c>
+      <c r="N76">
+        <v>0.0074037027644261065</v>
+      </c>
+      <c r="O76">
+        <v>0.96199259613138077</v>
+      </c>
+      <c r="P76">
+        <v>1.6005734576377616e-13</v>
+      </c>
+      <c r="Q76">
+        <v>1.6005734576377623e-13</v>
+      </c>
+      <c r="R76">
+        <v>1.6005734576377618e-13</v>
+      </c>
+      <c r="S76">
+        <v>14</v>
+      </c>
+      <c r="T76">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="s">
+        <v>471</v>
+      </c>
+      <c r="B77">
+        <v>5.4890102119438363e-13</v>
+      </c>
+      <c r="C77">
+        <v>5.4890102119438363e-13</v>
+      </c>
+      <c r="D77">
+        <v>1.6333314153522101e-07</v>
+      </c>
+      <c r="E77">
+        <v>5.4890102119437566e-13</v>
+      </c>
+      <c r="F77">
+        <v>5.4890102119437454e-13</v>
+      </c>
+      <c r="G77">
+        <v>0.03746507739509624</v>
+      </c>
+      <c r="H77">
+        <v>5.4890102119438373e-13</v>
+      </c>
+      <c r="I77">
+        <v>5.4890102119438373e-13</v>
+      </c>
+      <c r="J77">
+        <v>5.4890102119438383e-13</v>
+      </c>
+      <c r="K77">
+        <v>1.0470105288922136e-05</v>
+      </c>
+      <c r="L77">
+        <v>5.4890102119438333e-13</v>
+      </c>
+      <c r="M77">
+        <v>0.040259933806182244</v>
+      </c>
+      <c r="N77">
+        <v>0.041199046023006683</v>
+      </c>
+      <c r="O77">
+        <v>0.88106530933124649</v>
+      </c>
+      <c r="P77">
+        <v>5.4890102119438495e-13</v>
+      </c>
+      <c r="Q77">
+        <v>5.4890102119438495e-13</v>
+      </c>
+      <c r="R77">
+        <v>5.4890102119438495e-13</v>
+      </c>
+      <c r="S77">
+        <v>14</v>
+      </c>
+      <c r="T77">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="B78">
+        <v>3.1644403020599524e-13</v>
+      </c>
+      <c r="C78">
+        <v>3.1644403020599524e-13</v>
+      </c>
+      <c r="D78">
+        <v>9.3448217659127056e-09</v>
+      </c>
+      <c r="E78">
+        <v>3.1644403020599595e-13</v>
+      </c>
+      <c r="F78">
+        <v>3.1644403020599595e-13</v>
+      </c>
+      <c r="G78">
+        <v>0.028114556818838003</v>
+      </c>
+      <c r="H78">
+        <v>3.164440302059956e-13</v>
+      </c>
+      <c r="I78">
+        <v>3.164440302059956e-13</v>
+      </c>
+      <c r="J78">
+        <v>3.1644403020599565e-13</v>
+      </c>
+      <c r="K78">
+        <v>5.0743611511294151e-06</v>
+      </c>
+      <c r="L78">
+        <v>3.1644403020599494e-13</v>
+      </c>
+      <c r="M78">
+        <v>0.016580441591482191</v>
+      </c>
+      <c r="N78">
+        <v>0.017386733419081871</v>
+      </c>
+      <c r="O78">
+        <v>0.93791318446114391</v>
+      </c>
+      <c r="P78">
+        <v>3.1644403020599499e-13</v>
+      </c>
+      <c r="Q78">
+        <v>3.1644403020599514e-13</v>
+      </c>
+      <c r="R78">
+        <v>3.1644403020599499e-13</v>
+      </c>
+      <c r="S78">
+        <v>14</v>
+      </c>
+      <c r="T78">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="s">
+        <v>473</v>
+      </c>
+      <c r="B79">
+        <v>3.8537284326574869e-13</v>
+      </c>
+      <c r="C79">
+        <v>3.8537284326574869e-13</v>
+      </c>
+      <c r="D79">
+        <v>1.2874184825865717e-06</v>
+      </c>
+      <c r="E79">
+        <v>3.8537284326574854e-13</v>
+      </c>
+      <c r="F79">
+        <v>3.8537284326574849e-13</v>
+      </c>
+      <c r="G79">
+        <v>0.016478331847847416</v>
+      </c>
+      <c r="H79">
+        <v>3.8537284326574849e-13</v>
+      </c>
+      <c r="I79">
+        <v>3.8537284326574823e-13</v>
+      </c>
+      <c r="J79">
+        <v>3.8537284326574823e-13</v>
+      </c>
+      <c r="K79">
+        <v>6.4317060438419302e-06</v>
+      </c>
+      <c r="L79">
+        <v>3.853728432657345e-13</v>
+      </c>
+      <c r="M79">
+        <v>0.019956873900593797</v>
+      </c>
+      <c r="N79">
+        <v>0.015117462381449943</v>
+      </c>
+      <c r="O79">
+        <v>0.94843961274134325</v>
+      </c>
+      <c r="P79">
+        <v>3.8537284326573475e-13</v>
+      </c>
+      <c r="Q79">
+        <v>3.8537284326573607e-13</v>
+      </c>
+      <c r="R79">
+        <v>3.8537284326573475e-13</v>
+      </c>
+      <c r="S79">
+        <v>14</v>
+      </c>
+      <c r="T79">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="B80">
+        <v>3.8905979522421634e-13</v>
+      </c>
+      <c r="C80">
+        <v>3.8905979522421634e-13</v>
+      </c>
+      <c r="D80">
+        <v>6.2332842084162162e-08</v>
+      </c>
+      <c r="E80">
+        <v>3.8905979522421689e-13</v>
+      </c>
+      <c r="F80">
+        <v>3.8905979522421659e-13</v>
+      </c>
+      <c r="G80">
+        <v>0.033266242709904387</v>
+      </c>
+      <c r="H80">
+        <v>3.8905979522421659e-13</v>
+      </c>
+      <c r="I80">
+        <v>3.8905979522421634e-13</v>
+      </c>
+      <c r="J80">
+        <v>3.8905979522421659e-13</v>
+      </c>
+      <c r="K80">
+        <v>7.3699022814952852e-06</v>
+      </c>
+      <c r="L80">
+        <v>3.8905979522421694e-13</v>
+      </c>
+      <c r="M80">
+        <v>0.019952862893553351</v>
+      </c>
+      <c r="N80">
+        <v>0.019260126958796385</v>
+      </c>
+      <c r="O80">
+        <v>0.92751333519834267</v>
+      </c>
+      <c r="P80">
+        <v>3.8905979522421689e-13</v>
+      </c>
+      <c r="Q80">
+        <v>3.8905979522421694e-13</v>
+      </c>
+      <c r="R80">
+        <v>3.8905979522421694e-13</v>
+      </c>
+      <c r="S80">
+        <v>14</v>
+      </c>
+      <c r="T80">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="B81">
+        <v>2.2203023546582465e-14</v>
+      </c>
+      <c r="C81">
+        <v>2.2203023546582465e-14</v>
+      </c>
+      <c r="D81">
+        <v>0.0020915372394187575</v>
+      </c>
+      <c r="E81">
+        <v>2.2203023546582465e-14</v>
+      </c>
+      <c r="F81">
+        <v>2.2203023546582465e-14</v>
+      </c>
+      <c r="G81">
+        <v>0.00091133026139284467</v>
+      </c>
+      <c r="H81">
+        <v>2.2203023546582465e-14</v>
+      </c>
+      <c r="I81">
+        <v>2.2203023546582465e-14</v>
+      </c>
+      <c r="J81">
+        <v>2.2203023546582465e-14</v>
+      </c>
+      <c r="K81">
+        <v>2.2444450806875418e-06</v>
+      </c>
+      <c r="L81">
+        <v>2.2203023546582465e-14</v>
+      </c>
+      <c r="M81">
+        <v>0.0038014748439134899</v>
+      </c>
+      <c r="N81">
+        <v>3.1727836242199354e-07</v>
+      </c>
+      <c r="O81">
+        <v>0.0017014447618270648</v>
+      </c>
+      <c r="P81">
+        <v>0.99149165116978266</v>
+      </c>
+      <c r="Q81">
+        <v>2.2203023546582465e-14</v>
+      </c>
+      <c r="R81">
+        <v>2.2203023546582465e-14</v>
+      </c>
+      <c r="S81">
+        <v>15</v>
+      </c>
+      <c r="T81">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="B82">
+        <v>2.2203097603082588e-14</v>
+      </c>
+      <c r="C82">
+        <v>2.2203097603082588e-14</v>
+      </c>
+      <c r="D82">
+        <v>2.0551968887965603e-06</v>
+      </c>
+      <c r="E82">
+        <v>2.2203097603082588e-14</v>
+      </c>
+      <c r="F82">
+        <v>2.2203097603082588e-14</v>
+      </c>
+      <c r="G82">
+        <v>0.0046405928745211628</v>
+      </c>
+      <c r="H82">
+        <v>2.2203097603082588e-14</v>
+      </c>
+      <c r="I82">
+        <v>2.2203097603082588e-14</v>
+      </c>
+      <c r="J82">
+        <v>2.2203097603082588e-14</v>
+      </c>
+      <c r="K82">
+        <v>3.5266038815475156e-06</v>
+      </c>
+      <c r="L82">
+        <v>2.2203097603082588e-14</v>
+      </c>
+      <c r="M82">
+        <v>0.010812138007137295</v>
+      </c>
+      <c r="N82">
+        <v>8.3828249432718287e-08</v>
+      </c>
+      <c r="O82">
+        <v>0.00048302578263244501</v>
+      </c>
+      <c r="P82">
+        <v>0.98405857770646721</v>
+      </c>
+      <c r="Q82">
+        <v>2.2203097603082588e-14</v>
+      </c>
+      <c r="R82">
+        <v>2.2203097603082588e-14</v>
+      </c>
+      <c r="S82">
+        <v>15</v>
+      </c>
+      <c r="T82">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="B83">
+        <v>2.2202205658472696e-14</v>
+      </c>
+      <c r="C83">
+        <v>2.2202205658472696e-14</v>
+      </c>
+      <c r="D83">
+        <v>0.00014598547731141211</v>
+      </c>
+      <c r="E83">
+        <v>2.2202205658472696e-14</v>
+      </c>
+      <c r="F83">
+        <v>2.2202205658472696e-14</v>
+      </c>
+      <c r="G83">
+        <v>0.0014203264463944949</v>
+      </c>
+      <c r="H83">
+        <v>2.2202205658472696e-14</v>
+      </c>
+      <c r="I83">
+        <v>2.2202205658472696e-14</v>
+      </c>
+      <c r="J83">
+        <v>2.2202205658472696e-14</v>
+      </c>
+      <c r="K83">
+        <v>1.7492569739070416e-06</v>
+      </c>
+      <c r="L83">
+        <v>2.2202205658472696e-14</v>
+      </c>
+      <c r="M83">
+        <v>0.0045624676783887087</v>
+      </c>
+      <c r="N83">
+        <v>1.2686284426305498e-07</v>
+      </c>
+      <c r="O83">
+        <v>0.00081353367914912785</v>
+      </c>
+      <c r="P83">
+        <v>0.99305581059871595</v>
+      </c>
+      <c r="Q83">
+        <v>2.2202205658472696e-14</v>
+      </c>
+      <c r="R83">
+        <v>2.2202205658472696e-14</v>
+      </c>
+      <c r="S83">
+        <v>15</v>
+      </c>
+      <c r="T83">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="B84">
+        <v>2.2201839968961302e-14</v>
+      </c>
+      <c r="C84">
+        <v>2.2201839968961302e-14</v>
+      </c>
+      <c r="D84">
+        <v>5.3289875189483369e-05</v>
+      </c>
+      <c r="E84">
+        <v>2.2201839968961302e-14</v>
+      </c>
+      <c r="F84">
+        <v>2.2201839968961302e-14</v>
+      </c>
+      <c r="G84">
+        <v>0.0010447902979871049</v>
+      </c>
+      <c r="H84">
+        <v>2.2201839968961302e-14</v>
+      </c>
+      <c r="I84">
+        <v>2.2201839968961302e-14</v>
+      </c>
+      <c r="J84">
+        <v>2.2201839968961302e-14</v>
+      </c>
+      <c r="K84">
+        <v>1.9793526179191553e-06</v>
+      </c>
+      <c r="L84">
+        <v>2.2201839968961302e-14</v>
+      </c>
+      <c r="M84">
+        <v>0.0039810631460804359</v>
+      </c>
+      <c r="N84">
+        <v>8.3732574726628738e-08</v>
+      </c>
+      <c r="O84">
+        <v>0.00067363023994625572</v>
+      </c>
+      <c r="P84">
+        <v>0.99424516335538216</v>
+      </c>
+      <c r="Q84">
+        <v>2.2201839968961302e-14</v>
+      </c>
+      <c r="R84">
+        <v>2.2201839968961302e-14</v>
+      </c>
+      <c r="S84">
+        <v>15</v>
+      </c>
+      <c r="T84">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="B85">
+        <v>2.2202624532047522e-14</v>
+      </c>
+      <c r="C85">
+        <v>2.2202624532047522e-14</v>
+      </c>
+      <c r="D85">
+        <v>0.00013907752161828758</v>
+      </c>
+      <c r="E85">
+        <v>2.2202624532047522e-14</v>
+      </c>
+      <c r="F85">
+        <v>2.2202624532047522e-14</v>
+      </c>
+      <c r="G85">
+        <v>0.00058188176161922788</v>
+      </c>
+      <c r="H85">
+        <v>2.2202624532047522e-14</v>
+      </c>
+      <c r="I85">
+        <v>2.2202624532047522e-14</v>
+      </c>
+      <c r="J85">
+        <v>2.2202624532047522e-14</v>
+      </c>
+      <c r="K85">
+        <v>2.9505759450150667e-07</v>
+      </c>
+      <c r="L85">
+        <v>2.2202624532047522e-14</v>
+      </c>
+      <c r="M85">
+        <v>0.0026694165299562703</v>
+      </c>
+      <c r="N85">
+        <v>0.00010695123586154464</v>
+      </c>
+      <c r="O85">
+        <v>0.0049840595328401547</v>
+      </c>
+      <c r="P85">
+        <v>2.2202624532047522e-14</v>
+      </c>
+      <c r="Q85">
+        <v>0.99151831836028803</v>
+      </c>
+      <c r="R85">
+        <v>2.2202624532047522e-14</v>
+      </c>
+      <c r="S85">
+        <v>16</v>
+      </c>
+      <c r="T85">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="B86">
+        <v>2.2200603837323137e-14</v>
+      </c>
+      <c r="C86">
+        <v>2.2200603837323137e-14</v>
+      </c>
+      <c r="D86">
+        <v>1.3921369038729154e-05</v>
+      </c>
+      <c r="E86">
+        <v>2.2200603837323137e-14</v>
+      </c>
+      <c r="F86">
+        <v>2.2200603837323137e-14</v>
+      </c>
+      <c r="G86">
+        <v>0.0005135533924916423</v>
+      </c>
+      <c r="H86">
+        <v>2.2200603837323137e-14</v>
+      </c>
+      <c r="I86">
+        <v>2.2200603837323137e-14</v>
+      </c>
+      <c r="J86">
+        <v>2.2200603837323137e-14</v>
+      </c>
+      <c r="K86">
+        <v>2.7318305818690205e-07</v>
+      </c>
+      <c r="L86">
+        <v>2.2200603837323137e-14</v>
+      </c>
+      <c r="M86">
+        <v>0.0019275100052096525</v>
+      </c>
+      <c r="N86">
+        <v>0.00090102324324282121</v>
+      </c>
+      <c r="O86">
+        <v>0.02299362969017088</v>
+      </c>
+      <c r="P86">
+        <v>2.2200603837323137e-14</v>
+      </c>
+      <c r="Q86">
+        <v>0.97365008911656603</v>
+      </c>
+      <c r="R86">
+        <v>2.2200603837323137e-14</v>
+      </c>
+      <c r="S86">
+        <v>16</v>
+      </c>
+      <c r="T86">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="B87">
+        <v>2.2201390080814358e-14</v>
+      </c>
+      <c r="C87">
+        <v>2.2201390080814358e-14</v>
+      </c>
+      <c r="D87">
+        <v>4.4819668541962786e-06</v>
+      </c>
+      <c r="E87">
+        <v>2.2201390080814358e-14</v>
+      </c>
+      <c r="F87">
+        <v>2.2201390080814358e-14</v>
+      </c>
+      <c r="G87">
+        <v>0.00043355694749054309</v>
+      </c>
+      <c r="H87">
+        <v>2.2201390080814358e-14</v>
+      </c>
+      <c r="I87">
+        <v>2.2201390080814358e-14</v>
+      </c>
+      <c r="J87">
+        <v>2.2201390080814358e-14</v>
+      </c>
+      <c r="K87">
+        <v>5.5964714452377058e-07</v>
+      </c>
+      <c r="L87">
+        <v>2.2201390080814358e-14</v>
+      </c>
+      <c r="M87">
+        <v>0.0020931557520408239</v>
+      </c>
+      <c r="N87">
+        <v>0.00015206430143457648</v>
+      </c>
+      <c r="O87">
+        <v>0.016167760870809102</v>
+      </c>
+      <c r="P87">
+        <v>2.2201390080814358e-14</v>
+      </c>
+      <c r="Q87">
+        <v>0.9811484205140043</v>
+      </c>
+      <c r="R87">
+        <v>2.2201390080814358e-14</v>
+      </c>
+      <c r="S87">
+        <v>16</v>
+      </c>
+      <c r="T87">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B88">
+        <v>2.2202158174385493e-14</v>
+      </c>
+      <c r="C88">
+        <v>2.2202158174385493e-14</v>
+      </c>
+      <c r="D88">
+        <v>1.8744559982295501e-05</v>
+      </c>
+      <c r="E88">
+        <v>2.2202158174385493e-14</v>
+      </c>
+      <c r="F88">
+        <v>2.2202158174385493e-14</v>
+      </c>
+      <c r="G88">
+        <v>0.00029459110788882187</v>
+      </c>
+      <c r="H88">
+        <v>2.2202158174385493e-14</v>
+      </c>
+      <c r="I88">
+        <v>2.2202158174385493e-14</v>
+      </c>
+      <c r="J88">
+        <v>2.2202158174385493e-14</v>
+      </c>
+      <c r="K88">
+        <v>4.5048456546843239e-07</v>
+      </c>
+      <c r="L88">
+        <v>2.2202158174385493e-14</v>
+      </c>
+      <c r="M88">
+        <v>0.0031220002152047323</v>
+      </c>
+      <c r="N88">
+        <v>2.7904256237622547e-05</v>
+      </c>
+      <c r="O88">
+        <v>0.0027282149690880273</v>
+      </c>
+      <c r="P88">
+        <v>2.2202158174385493e-14</v>
+      </c>
+      <c r="Q88">
+        <v>0.99380809440681106</v>
+      </c>
+      <c r="R88">
+        <v>2.2202158174385493e-14</v>
+      </c>
+      <c r="S88">
+        <v>16</v>
+      </c>
+      <c r="T88">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="B89">
+        <v>2.2201525264708253e-14</v>
+      </c>
+      <c r="C89">
+        <v>2.2201525264708253e-14</v>
+      </c>
+      <c r="D89">
+        <v>2.8728005653459478e-05</v>
+      </c>
+      <c r="E89">
+        <v>2.2201525264708253e-14</v>
+      </c>
+      <c r="F89">
+        <v>2.2201525264708253e-14</v>
+      </c>
+      <c r="G89">
+        <v>0.00042587106964045982</v>
+      </c>
+      <c r="H89">
+        <v>2.2201525264708253e-14</v>
+      </c>
+      <c r="I89">
+        <v>2.2201525264708253e-14</v>
+      </c>
+      <c r="J89">
+        <v>2.2201525264708253e-14</v>
+      </c>
+      <c r="K89">
+        <v>2.4409851313961207e-07</v>
+      </c>
+      <c r="L89">
+        <v>2.2201525264708253e-14</v>
+      </c>
+      <c r="M89">
+        <v>0.0021796418596703327</v>
+      </c>
+      <c r="N89">
+        <v>0.00087482853439301738</v>
+      </c>
+      <c r="O89">
+        <v>0.017378734018737841</v>
+      </c>
+      <c r="P89">
+        <v>2.2201525264708253e-14</v>
+      </c>
+      <c r="Q89">
+        <v>0.97911195241316973</v>
+      </c>
+      <c r="R89">
+        <v>2.2201525264708253e-14</v>
+      </c>
+      <c r="S89">
+        <v>16</v>
+      </c>
+      <c r="T89">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="B90">
+        <v>2.2202664182614202e-14</v>
+      </c>
+      <c r="C90">
+        <v>2.2202664182614202e-14</v>
+      </c>
+      <c r="D90">
+        <v>9.7973732111235071e-05</v>
+      </c>
+      <c r="E90">
+        <v>2.2202664182614202e-14</v>
+      </c>
+      <c r="F90">
+        <v>2.2202664182614202e-14</v>
+      </c>
+      <c r="G90">
+        <v>0.00028995191384534715</v>
+      </c>
+      <c r="H90">
+        <v>2.2202664182614202e-14</v>
+      </c>
+      <c r="I90">
+        <v>2.2202664182614202e-14</v>
+      </c>
+      <c r="J90">
+        <v>2.2202664182614202e-14</v>
+      </c>
+      <c r="K90">
+        <v>4.8265761855275311e-07</v>
+      </c>
+      <c r="L90">
+        <v>2.2202664182614202e-14</v>
+      </c>
+      <c r="M90">
+        <v>0.0034047019248240472</v>
+      </c>
+      <c r="N90">
+        <v>7.7471253839010728e-05</v>
+      </c>
+      <c r="O90">
+        <v>0.0045826275956862735</v>
+      </c>
+      <c r="P90">
+        <v>2.2202664182614202e-14</v>
+      </c>
+      <c r="Q90">
+        <v>0.99154679092185349</v>
+      </c>
+      <c r="R90">
+        <v>2.2202664182614202e-14</v>
+      </c>
+      <c r="S90">
+        <v>16</v>
+      </c>
+      <c r="T90">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="B91">
+        <v>2.2204163941316837e-14</v>
+      </c>
+      <c r="C91">
+        <v>2.2204163941316837e-14</v>
+      </c>
+      <c r="D91">
+        <v>0.0002639419444123514</v>
+      </c>
+      <c r="E91">
+        <v>2.2204163941316837e-14</v>
+      </c>
+      <c r="F91">
+        <v>2.2204163941316837e-14</v>
+      </c>
+      <c r="G91">
+        <v>0.00029973242382393876</v>
+      </c>
+      <c r="H91">
+        <v>2.2204163941316837e-14</v>
+      </c>
+      <c r="I91">
+        <v>2.2204163941316837e-14</v>
+      </c>
+      <c r="J91">
+        <v>2.2204163941316837e-14</v>
+      </c>
+      <c r="K91">
+        <v>4.4668903185869873e-08</v>
+      </c>
+      <c r="L91">
+        <v>2.2204163941316837e-14</v>
+      </c>
+      <c r="M91">
+        <v>0.0017027255209854926</v>
+      </c>
+      <c r="N91">
+        <v>0.0074587671796827191</v>
+      </c>
+      <c r="O91">
+        <v>0.009757518468293468</v>
+      </c>
+      <c r="P91">
+        <v>2.2204163941316837e-14</v>
+      </c>
+      <c r="Q91">
+        <v>2.2204163941316837e-14</v>
+      </c>
+      <c r="R91">
+        <v>0.9805172697936767</v>
+      </c>
+      <c r="S91">
+        <v>17</v>
+      </c>
+      <c r="T91">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B92">
+        <v>2.2203050510760037e-14</v>
+      </c>
+      <c r="C92">
+        <v>2.2203050510760037e-14</v>
+      </c>
+      <c r="D92">
+        <v>0.00081383160874354038</v>
+      </c>
+      <c r="E92">
+        <v>2.2203050510760037e-14</v>
+      </c>
+      <c r="F92">
+        <v>2.2203050510760037e-14</v>
+      </c>
+      <c r="G92">
+        <v>0.00033737657959318602</v>
+      </c>
+      <c r="H92">
+        <v>2.2203050510760037e-14</v>
+      </c>
+      <c r="I92">
+        <v>2.2203050510760037e-14</v>
+      </c>
+      <c r="J92">
+        <v>2.2203050510760037e-14</v>
+      </c>
+      <c r="K92">
+        <v>4.2180180243349623e-08</v>
+      </c>
+      <c r="L92">
+        <v>2.2203050510760037e-14</v>
+      </c>
+      <c r="M92">
+        <v>0.00261845904581358</v>
+      </c>
+      <c r="N92">
+        <v>0.0014196623693902878</v>
+      </c>
+      <c r="O92">
+        <v>0.0031313485009223951</v>
+      </c>
+      <c r="P92">
+        <v>2.2203050510760037e-14</v>
+      </c>
+      <c r="Q92">
+        <v>2.2203050510760037e-14</v>
+      </c>
+      <c r="R92">
+        <v>0.99167927971513481</v>
+      </c>
+      <c r="S92">
+        <v>17</v>
+      </c>
+      <c r="T92">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B93">
+        <v>2.2202155637911222e-14</v>
+      </c>
+      <c r="C93">
+        <v>2.2202155637911222e-14</v>
+      </c>
+      <c r="D93">
+        <v>2.7681749358526132e-08</v>
+      </c>
+      <c r="E93">
+        <v>2.2202155637911222e-14</v>
+      </c>
+      <c r="F93">
+        <v>2.2202155637911222e-14</v>
+      </c>
+      <c r="G93">
+        <v>0.00017198787324797243</v>
+      </c>
+      <c r="H93">
+        <v>2.2202155637911222e-14</v>
+      </c>
+      <c r="I93">
+        <v>2.2202155637911222e-14</v>
+      </c>
+      <c r="J93">
+        <v>2.2202155637911222e-14</v>
+      </c>
+      <c r="K93">
+        <v>1.5829843232388328e-07</v>
+      </c>
+      <c r="L93">
+        <v>2.2202155637911222e-14</v>
+      </c>
+      <c r="M93">
+        <v>0.0025798189469174852</v>
+      </c>
+      <c r="N93">
+        <v>6.1050544238099716e-05</v>
+      </c>
+      <c r="O93">
+        <v>0.003582019400306224</v>
+      </c>
+      <c r="P93">
+        <v>2.2202155637911222e-14</v>
+      </c>
+      <c r="Q93">
+        <v>2.2202155637911222e-14</v>
+      </c>
+      <c r="R93">
+        <v>0.99360493725488652</v>
+      </c>
+      <c r="S93">
+        <v>17</v>
+      </c>
+      <c r="T93">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="B94">
+        <v>2.2200981964849881e-14</v>
+      </c>
+      <c r="C94">
+        <v>2.2200981964849881e-14</v>
+      </c>
+      <c r="D94">
+        <v>1.034128488099728e-09</v>
+      </c>
+      <c r="E94">
+        <v>2.2200981964849881e-14</v>
+      </c>
+      <c r="F94">
+        <v>2.2200981964849881e-14</v>
+      </c>
+      <c r="G94">
+        <v>0.00012431586994929582</v>
+      </c>
+      <c r="H94">
+        <v>2.2200981964849881e-14</v>
+      </c>
+      <c r="I94">
+        <v>2.2200981964849881e-14</v>
+      </c>
+      <c r="J94">
+        <v>2.2200981964849881e-14</v>
+      </c>
+      <c r="K94">
+        <v>2.1580627700144604e-07</v>
+      </c>
+      <c r="L94">
+        <v>2.2200981964849881e-14</v>
+      </c>
+      <c r="M94">
+        <v>0.0032540220866329912</v>
+      </c>
+      <c r="N94">
+        <v>7.7965465182147538e-07</v>
+      </c>
+      <c r="O94">
+        <v>0.00037046315223644613</v>
+      </c>
+      <c r="P94">
+        <v>2.2200981964849881e-14</v>
+      </c>
+      <c r="Q94">
+        <v>2.2200981964849881e-14</v>
+      </c>
+      <c r="R94">
+        <v>0.99625020239590201</v>
+      </c>
+      <c r="S94">
+        <v>17</v>
+      </c>
+      <c r="T94">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B95">
+        <v>2.2202200781884179e-14</v>
+      </c>
+      <c r="C95">
+        <v>2.2202200781884179e-14</v>
+      </c>
+      <c r="D95">
+        <v>2.3296434334365273e-06</v>
+      </c>
+      <c r="E95">
+        <v>2.2202200781884179e-14</v>
+      </c>
+      <c r="F95">
+        <v>2.2202200781884179e-14</v>
+      </c>
+      <c r="G95">
+        <v>0.00031350448459511408</v>
+      </c>
+      <c r="H95">
+        <v>2.2202200781884179e-14</v>
+      </c>
+      <c r="I95">
+        <v>2.2202200781884179e-14</v>
+      </c>
+      <c r="J95">
+        <v>2.2202200781884179e-14</v>
+      </c>
+      <c r="K95">
+        <v>1.3482451564456579e-07</v>
+      </c>
+      <c r="L95">
+        <v>2.2202200781884179e-14</v>
+      </c>
+      <c r="M95">
+        <v>0.0020672003685429435</v>
+      </c>
+      <c r="N95">
+        <v>0.00019686597918888943</v>
+      </c>
+      <c r="O95">
+        <v>0.004050902671103326</v>
+      </c>
+      <c r="P95">
+        <v>2.2202200781884179e-14</v>
+      </c>
+      <c r="Q95">
+        <v>2.2202200781884179e-14</v>
+      </c>
+      <c r="R95">
+        <v>0.99336906202839859</v>
+      </c>
+      <c r="S95">
+        <v>17</v>
+      </c>
+      <c r="T95">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>